--- a/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Var rename" sheetId="1" r:id="rId1"/>
-    <sheet name="Variables" sheetId="4" r:id="rId2"/>
+    <sheet name="Person_View" sheetId="5" r:id="rId2"/>
     <sheet name="Formats" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="294">
   <si>
     <t xml:space="preserve">  label R0000100 = "PUBID - YTH ID CODE 1997";</t>
   </si>
@@ -546,9 +546,6 @@
     <t xml:space="preserve">  label T5201400 = "CV_AGE_INT_DATE 2010";</t>
   </si>
   <si>
-    <t>pray</t>
-  </si>
-  <si>
     <t>famrel097</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>famrel100</t>
   </si>
   <si>
-    <t>famrel</t>
-  </si>
-  <si>
     <t>In a typical week, how many days from 0 to 7 do you do something religious as a family such as go to church, pray or read the scriptures together?</t>
   </si>
   <si>
@@ -711,9 +705,6 @@
     <t>obey_108</t>
   </si>
   <si>
-    <t>relpref</t>
-  </si>
-  <si>
     <t>values_102</t>
   </si>
   <si>
@@ -756,15 +747,6 @@
     <t>What is your current religious preference?</t>
   </si>
   <si>
-    <t>obey</t>
-  </si>
-  <si>
-    <t>decide</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>todo_102</t>
   </si>
   <si>
@@ -774,9 +756,6 @@
     <t>todo_108</t>
   </si>
   <si>
-    <t>todo</t>
-  </si>
-  <si>
     <t>God has nothing to do with what happens to me personally.</t>
   </si>
   <si>
@@ -792,27 +771,6 @@
     <t>The Bible/Koran/Torah/religious teachings should be obeyed exactly as written in every situation.</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>attend</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>varname</t>
-  </si>
-  <si>
-    <t>qtext</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 2 3 4 5 6 7</t>
-  </si>
-  <si>
-    <t>1 2 3 4 5 6 7 8</t>
-  </si>
-  <si>
     <t>T/F</t>
   </si>
   <si>
@@ -832,13 +790,124 @@
   </si>
   <si>
     <t xml:space="preserve">label </t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Attitudes</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AgeMon</t>
+  </si>
+  <si>
+    <t>AgeYear</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>RelPref</t>
+  </si>
+  <si>
+    <t>FamRel</t>
+  </si>
+  <si>
+    <t>Attend</t>
+  </si>
+  <si>
+    <t>Decide</t>
+  </si>
+  <si>
+    <t>Obey</t>
+  </si>
+  <si>
+    <t>Pray</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Baptist</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>N = 4928</t>
+  </si>
+  <si>
+    <t>1997 - 2010</t>
+  </si>
+  <si>
+    <t>1980 -1984</t>
+  </si>
+  <si>
+    <t>140 -    220</t>
+  </si>
+  <si>
+    <t>16 -        30</t>
+  </si>
+  <si>
+    <t>1-M         2-F</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-8</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often have you attended a worship service?</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Figure 1. Person view of data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +921,15 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,24 +956,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -915,9 +985,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -931,55 +999,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -989,18 +1008,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1009,65 +1070,49 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1433,7 @@
       <c r="N1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1399,22 +1444,22 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f>MID(B2,21,40)</f>
+        <f t="shared" ref="H2:H33" si="0">MID(B2,21,40)</f>
         <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="M2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N2" t="str">
-        <f>MID(B2,9,8)</f>
+        <f t="shared" ref="N2:N33" si="1">MID(B2,9,8)</f>
         <v>R0323900</v>
       </c>
       <c r="O2" t="str">
-        <f>MID(B2,18,80)</f>
+        <f t="shared" ref="O2:O33" si="2">MID(B2,18,80)</f>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE($U$1,M2,O2)</f>
+        <f t="shared" ref="T2:T33" si="3">CONCATENATE($U$1,M2,O2)</f>
         <v>label famrel097= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
     </row>
@@ -1426,22 +1471,22 @@
         <v>8</v>
       </c>
       <c r="H3" t="str">
-        <f>MID(B3,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N3" t="str">
-        <f>MID(B3,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R2165200</v>
       </c>
       <c r="O3" t="str">
-        <f>MID(B3,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="T3" t="str">
-        <f>CONCATENATE($U$1,M3,O3)</f>
+        <f t="shared" si="3"/>
         <v>label famrel098= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
     </row>
@@ -1453,22 +1498,22 @@
         <v>9</v>
       </c>
       <c r="H4" t="str">
-        <f>MID(B4,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="M4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N4" t="str">
-        <f>MID(B4,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R3483100</v>
       </c>
       <c r="O4" t="str">
-        <f>MID(B4,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="T4" t="str">
-        <f>CONCATENATE($U$1,M4,O4)</f>
+        <f t="shared" si="3"/>
         <v>label famrel099= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
     </row>
@@ -1480,22 +1525,22 @@
         <v>10</v>
       </c>
       <c r="H5" t="str">
-        <f>MID(B5,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="M5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N5" t="str">
-        <f>MID(B5,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R4881300</v>
       </c>
       <c r="O5" t="str">
-        <f>MID(B5,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="T5" t="str">
-        <f>CONCATENATE($U$1,M5,O5)</f>
+        <f t="shared" si="3"/>
         <v>label famrel100= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
     </row>
@@ -1507,22 +1552,22 @@
         <v>143</v>
       </c>
       <c r="H6" t="str">
-        <f>MID(B6,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="M6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N6" t="str">
-        <f>MID(B6,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R1193900</v>
       </c>
       <c r="O6" t="str">
-        <f>MID(B6,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="T6" t="str">
-        <f>CONCATENATE($U$1,M6,O6)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_097= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
     </row>
@@ -1534,22 +1579,22 @@
         <v>145</v>
       </c>
       <c r="H7" t="str">
-        <f>MID(B7,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="M7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N7" t="str">
-        <f>MID(B7,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R2553400</v>
       </c>
       <c r="O7" t="str">
-        <f>MID(B7,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="T7" t="str">
-        <f>CONCATENATE($U$1,M7,O7)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_098= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
     </row>
@@ -1561,22 +1606,22 @@
         <v>147</v>
       </c>
       <c r="H8" t="str">
-        <f>MID(B8,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N8" t="str">
-        <f>MID(B8,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R3876200</v>
       </c>
       <c r="O8" t="str">
-        <f>MID(B8,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="T8" t="str">
-        <f>CONCATENATE($U$1,M8,O8)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_099= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
     </row>
@@ -1588,22 +1633,22 @@
         <v>149</v>
       </c>
       <c r="H9" t="str">
-        <f>MID(B9,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N9" t="str">
-        <f>MID(B9,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R5453600</v>
       </c>
       <c r="O9" t="str">
-        <f>MID(B9,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="T9" t="str">
-        <f>CONCATENATE($U$1,M9,O9)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_100= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
     </row>
@@ -1615,22 +1660,22 @@
         <v>151</v>
       </c>
       <c r="H10" t="str">
-        <f>MID(B10,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N10" t="str">
-        <f>MID(B10,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R7215900</v>
       </c>
       <c r="O10" t="str">
-        <f>MID(B10,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="T10" t="str">
-        <f>CONCATENATE($U$1,M10,O10)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_101= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
     </row>
@@ -1642,22 +1687,22 @@
         <v>153</v>
       </c>
       <c r="H11" t="str">
-        <f>MID(B11,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N11" t="str">
-        <f>MID(B11,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S1531300</v>
       </c>
       <c r="O11" t="str">
-        <f>MID(B11,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="T11" t="str">
-        <f>CONCATENATE($U$1,M11,O11)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_102= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
     </row>
@@ -1669,22 +1714,22 @@
         <v>155</v>
       </c>
       <c r="H12" t="str">
-        <f>MID(B12,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="M12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N12" t="str">
-        <f>MID(B12,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S2000900</v>
       </c>
       <c r="O12" t="str">
-        <f>MID(B12,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="T12" t="str">
-        <f>CONCATENATE($U$1,M12,O12)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_103= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
     </row>
@@ -1696,22 +1741,22 @@
         <v>157</v>
       </c>
       <c r="H13" t="str">
-        <f>MID(B13,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="M13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N13" t="str">
-        <f>MID(B13,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S3801000</v>
       </c>
       <c r="O13" t="str">
-        <f>MID(B13,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE($U$1,M13,O13)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_104= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
     </row>
@@ -1723,22 +1768,22 @@
         <v>159</v>
       </c>
       <c r="H14" t="str">
-        <f>MID(B14,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N14" t="str">
-        <f>MID(B14,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S5400900</v>
       </c>
       <c r="O14" t="str">
-        <f>MID(B14,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE($U$1,M14,O14)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_105= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
     </row>
@@ -1750,22 +1795,22 @@
         <v>162</v>
       </c>
       <c r="H15" t="str">
-        <f>MID(B15,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N15" t="str">
-        <f>MID(B15,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S7501100</v>
       </c>
       <c r="O15" t="str">
-        <f>MID(B15,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="T15" t="str">
-        <f>CONCATENATE($U$1,M15,O15)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_106= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
     </row>
@@ -1777,22 +1822,22 @@
         <v>164</v>
       </c>
       <c r="H16" t="str">
-        <f>MID(B16,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="M16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N16" t="str">
-        <f>MID(B16,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T0008400</v>
       </c>
       <c r="O16" t="str">
-        <f>MID(B16,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE($U$1,M16,O16)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_107= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
     </row>
@@ -1804,22 +1849,22 @@
         <v>166</v>
       </c>
       <c r="H17" t="str">
-        <f>MID(B17,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="M17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N17" t="str">
-        <f>MID(B17,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T2011000</v>
       </c>
       <c r="O17" t="str">
-        <f>MID(B17,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE($U$1,M17,O17)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_108= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
     </row>
@@ -1831,22 +1876,22 @@
         <v>169</v>
       </c>
       <c r="H18" t="str">
-        <f>MID(B18,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="M18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N18" t="str">
-        <f>MID(B18,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T3601400</v>
       </c>
       <c r="O18" t="str">
-        <f>MID(B18,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="T18" t="str">
-        <f>CONCATENATE($U$1,M18,O18)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_109= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
     </row>
@@ -1858,22 +1903,22 @@
         <v>173</v>
       </c>
       <c r="H19" t="str">
-        <f>MID(B19,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="M19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N19" t="str">
-        <f>MID(B19,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T5201300</v>
       </c>
       <c r="O19" t="str">
-        <f>MID(B19,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="T19" t="str">
-        <f>CONCATENATE($U$1,M19,O19)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_110= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
     </row>
@@ -1885,22 +1930,22 @@
         <v>144</v>
       </c>
       <c r="H20" t="str">
-        <f>MID(B20,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N20" t="str">
-        <f>MID(B20,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R1194100</v>
       </c>
       <c r="O20" t="str">
-        <f>MID(B20,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="T20" t="str">
-        <f>CONCATENATE($U$1,M20,O20)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_097= "CV_AGE_INT_DATE 1997";</v>
       </c>
     </row>
@@ -1912,22 +1957,22 @@
         <v>146</v>
       </c>
       <c r="H21" t="str">
-        <f>MID(B21,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="M21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N21" t="str">
-        <f>MID(B21,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R2553500</v>
       </c>
       <c r="O21" t="str">
-        <f>MID(B21,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="T21" t="str">
-        <f>CONCATENATE($U$1,M21,O21)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_098= "CV_AGE_INT_DATE 1998";</v>
       </c>
     </row>
@@ -1939,22 +1984,22 @@
         <v>148</v>
       </c>
       <c r="H22" t="str">
-        <f>MID(B22,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="M22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N22" t="str">
-        <f>MID(B22,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R3876300</v>
       </c>
       <c r="O22" t="str">
-        <f>MID(B22,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="T22" t="str">
-        <f>CONCATENATE($U$1,M22,O22)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_099= "CV_AGE_INT_DATE 1999";</v>
       </c>
     </row>
@@ -1966,22 +2011,22 @@
         <v>150</v>
       </c>
       <c r="H23" t="str">
-        <f>MID(B23,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="M23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N23" t="str">
-        <f>MID(B23,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R5453700</v>
       </c>
       <c r="O23" t="str">
-        <f>MID(B23,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="T23" t="str">
-        <f>CONCATENATE($U$1,M23,O23)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_100= "CV_AGE_INT_DATE 2000";</v>
       </c>
     </row>
@@ -1993,22 +2038,22 @@
         <v>152</v>
       </c>
       <c r="H24" t="str">
-        <f>MID(B24,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N24" t="str">
-        <f>MID(B24,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R7216000</v>
       </c>
       <c r="O24" t="str">
-        <f>MID(B24,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="T24" t="str">
-        <f>CONCATENATE($U$1,M24,O24)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_101= "CV_AGE_INT_DATE 2001";</v>
       </c>
     </row>
@@ -2020,22 +2065,22 @@
         <v>154</v>
       </c>
       <c r="H25" t="str">
-        <f>MID(B25,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="M25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N25" t="str">
-        <f>MID(B25,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S1531400</v>
       </c>
       <c r="O25" t="str">
-        <f>MID(B25,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="T25" t="str">
-        <f>CONCATENATE($U$1,M25,O25)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_102= "CV_AGE_INT_DATE 2002";</v>
       </c>
     </row>
@@ -2047,22 +2092,22 @@
         <v>156</v>
       </c>
       <c r="H26" t="str">
-        <f>MID(B26,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="M26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N26" t="str">
-        <f>MID(B26,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S2001000</v>
       </c>
       <c r="O26" t="str">
-        <f>MID(B26,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="T26" t="str">
-        <f>CONCATENATE($U$1,M26,O26)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_103= "CV_AGE_INT_DATE 2003";</v>
       </c>
     </row>
@@ -2074,22 +2119,22 @@
         <v>158</v>
       </c>
       <c r="H27" t="str">
-        <f>MID(B27,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="M27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N27" t="str">
-        <f>MID(B27,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S3801100</v>
       </c>
       <c r="O27" t="str">
-        <f>MID(B27,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="T27" t="str">
-        <f>CONCATENATE($U$1,M27,O27)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_104= "CV_AGE_INT_DATE 2004";</v>
       </c>
     </row>
@@ -2101,22 +2146,22 @@
         <v>160</v>
       </c>
       <c r="H28" t="str">
-        <f>MID(B28,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N28" t="str">
-        <f>MID(B28,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S5401000</v>
       </c>
       <c r="O28" t="str">
-        <f>MID(B28,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="T28" t="str">
-        <f>CONCATENATE($U$1,M28,O28)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_105= "CV_AGE_INT_DATE 2005";</v>
       </c>
     </row>
@@ -2128,22 +2173,22 @@
         <v>163</v>
       </c>
       <c r="H29" t="str">
-        <f>MID(B29,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="M29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N29" t="str">
-        <f>MID(B29,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S7501200</v>
       </c>
       <c r="O29" t="str">
-        <f>MID(B29,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="T29" t="str">
-        <f>CONCATENATE($U$1,M29,O29)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_106= "CV_AGE_INT_DATE 2006";</v>
       </c>
     </row>
@@ -2155,22 +2200,22 @@
         <v>165</v>
       </c>
       <c r="H30" t="str">
-        <f>MID(B30,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="M30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N30" t="str">
-        <f>MID(B30,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T0008500</v>
       </c>
       <c r="O30" t="str">
-        <f>MID(B30,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="T30" t="str">
-        <f>CONCATENATE($U$1,M30,O30)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_107= "CV_AGE_INT_DATE 2007";</v>
       </c>
     </row>
@@ -2182,22 +2227,22 @@
         <v>167</v>
       </c>
       <c r="H31" t="str">
-        <f>MID(B31,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="M31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N31" t="str">
-        <f>MID(B31,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T2011100</v>
       </c>
       <c r="O31" t="str">
-        <f>MID(B31,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="T31" t="str">
-        <f>CONCATENATE($U$1,M31,O31)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_108= "CV_AGE_INT_DATE 2008";</v>
       </c>
     </row>
@@ -2209,22 +2254,22 @@
         <v>170</v>
       </c>
       <c r="H32" t="str">
-        <f>MID(B32,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="M32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N32" t="str">
-        <f>MID(B32,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T3601500</v>
       </c>
       <c r="O32" t="str">
-        <f>MID(B32,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="T32" t="str">
-        <f>CONCATENATE($U$1,M32,O32)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_109= "CV_AGE_INT_DATE 2009";</v>
       </c>
     </row>
@@ -2236,22 +2281,22 @@
         <v>174</v>
       </c>
       <c r="H33" t="str">
-        <f>MID(B33,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="M33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N33" t="str">
-        <f>MID(B33,9,8)</f>
+        <f t="shared" si="1"/>
         <v>T5201400</v>
       </c>
       <c r="O33" t="str">
-        <f>MID(B33,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="T33" t="str">
-        <f>CONCATENATE($U$1,M33,O33)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_110= "CV_AGE_INT_DATE 2010";</v>
       </c>
     </row>
@@ -2263,22 +2308,22 @@
         <v>6</v>
       </c>
       <c r="H34" t="str">
-        <f>MID(B34,21,40)</f>
+        <f t="shared" ref="H34:H65" si="4">MID(B34,21,40)</f>
         <v>CV_SAMPLE_TYPE 1997";</v>
       </c>
       <c r="M34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N34" t="str">
-        <f>MID(B34,9,8)</f>
+        <f t="shared" ref="N34:N65" si="5">MID(B34,9,8)</f>
         <v>R1235800</v>
       </c>
       <c r="O34" t="str">
-        <f>MID(B34,18,80)</f>
+        <f t="shared" ref="O34:O65" si="6">MID(B34,18,80)</f>
         <v>= "CV_SAMPLE_TYPE 1997";</v>
       </c>
       <c r="T34" t="str">
-        <f>CONCATENATE($U$1,M34,O34)</f>
+        <f t="shared" ref="T34:T65" si="7">CONCATENATE($U$1,M34,O34)</f>
         <v>label samplesype= "CV_SAMPLE_TYPE 1997";</v>
       </c>
     </row>
@@ -2290,22 +2335,22 @@
         <v>17</v>
       </c>
       <c r="H35" t="str">
-        <f>MID(B35,21,40)</f>
+        <f t="shared" si="4"/>
         <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="M35" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N35" t="str">
-        <f>MID(B35,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S0919700</v>
       </c>
       <c r="O35" t="str">
-        <f>MID(B35,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="T35" t="str">
-        <f>CONCATENATE($U$1,M35,O35)</f>
+        <f t="shared" si="7"/>
         <v>label todo_102= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
     </row>
@@ -2317,22 +2362,22 @@
         <v>25</v>
       </c>
       <c r="H36" t="str">
-        <f>MID(B36,21,40)</f>
+        <f t="shared" si="4"/>
         <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="M36" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N36" t="str">
-        <f>MID(B36,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6317100</v>
       </c>
       <c r="O36" t="str">
-        <f>MID(B36,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="T36" t="str">
-        <f>CONCATENATE($U$1,M36,O36)</f>
+        <f t="shared" si="7"/>
         <v>label todo_105= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
     </row>
@@ -2344,22 +2389,22 @@
         <v>33</v>
       </c>
       <c r="H37" t="str">
-        <f>MID(B37,21,40)</f>
+        <f t="shared" si="4"/>
         <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="M37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N37" t="str">
-        <f>MID(B37,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782200</v>
       </c>
       <c r="O37" t="str">
-        <f>MID(B37,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="T37" t="str">
-        <f>CONCATENATE($U$1,M37,O37)</f>
+        <f t="shared" si="7"/>
         <v>label todo_108= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
     </row>
@@ -2371,22 +2416,22 @@
         <v>11</v>
       </c>
       <c r="H38" t="str">
-        <f>MID(B38,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="M38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N38" t="str">
-        <f>MID(B38,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R4893400</v>
       </c>
       <c r="O38" t="str">
-        <f>MID(B38,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="T38" t="str">
-        <f>CONCATENATE($U$1,M38,O38)</f>
+        <f t="shared" si="7"/>
         <v>label attend_100= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
     </row>
@@ -2398,22 +2443,22 @@
         <v>12</v>
       </c>
       <c r="H39" t="str">
-        <f>MID(B39,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="M39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N39" t="str">
-        <f>MID(B39,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R6520100</v>
       </c>
       <c r="O39" t="str">
-        <f>MID(B39,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="T39" t="str">
-        <f>CONCATENATE($U$1,M39,O39)</f>
+        <f t="shared" si="7"/>
         <v>label attend_101= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
     </row>
@@ -2425,22 +2470,22 @@
         <v>13</v>
       </c>
       <c r="H40" t="str">
-        <f>MID(B40,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="M40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N40" t="str">
-        <f>MID(B40,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S0919300</v>
       </c>
       <c r="O40" t="str">
-        <f>MID(B40,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="T40" t="str">
-        <f>CONCATENATE($U$1,M40,O40)</f>
+        <f t="shared" si="7"/>
         <v>label attend_102= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
     </row>
@@ -2452,22 +2497,22 @@
         <v>19</v>
       </c>
       <c r="H41" t="str">
-        <f>MID(B41,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="M41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N41" t="str">
-        <f>MID(B41,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S2987800</v>
       </c>
       <c r="O41" t="str">
-        <f>MID(B41,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="T41" t="str">
-        <f>CONCATENATE($U$1,M41,O41)</f>
+        <f t="shared" si="7"/>
         <v>label attend_103= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
     </row>
@@ -2479,22 +2524,22 @@
         <v>20</v>
       </c>
       <c r="H42" t="str">
-        <f>MID(B42,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="M42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N42" t="str">
-        <f>MID(B42,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S4681700</v>
       </c>
       <c r="O42" t="str">
-        <f>MID(B42,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="T42" t="str">
-        <f>CONCATENATE($U$1,M42,O42)</f>
+        <f t="shared" si="7"/>
         <v>label attend_104= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
     </row>
@@ -2506,22 +2551,22 @@
         <v>21</v>
       </c>
       <c r="H43" t="str">
-        <f>MID(B43,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="M43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N43" t="str">
-        <f>MID(B43,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6316700</v>
       </c>
       <c r="O43" t="str">
-        <f>MID(B43,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="T43" t="str">
-        <f>CONCATENATE($U$1,M43,O43)</f>
+        <f t="shared" si="7"/>
         <v>label attend_105= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
     </row>
@@ -2533,22 +2578,22 @@
         <v>27</v>
       </c>
       <c r="H44" t="str">
-        <f>MID(B44,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="M44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N44" t="str">
-        <f>MID(B44,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S8331500</v>
       </c>
       <c r="O44" t="str">
-        <f>MID(B44,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="T44" t="str">
-        <f>CONCATENATE($U$1,M44,O44)</f>
+        <f t="shared" si="7"/>
         <v>label attend_106= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
     </row>
@@ -2560,22 +2605,22 @@
         <v>28</v>
       </c>
       <c r="H45" t="str">
-        <f>MID(B45,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N45" t="str">
-        <f>MID(B45,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T0739400</v>
       </c>
       <c r="O45" t="str">
-        <f>MID(B45,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="T45" t="str">
-        <f>CONCATENATE($U$1,M45,O45)</f>
+        <f t="shared" si="7"/>
         <v>label attend_107= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
     </row>
@@ -2587,22 +2632,22 @@
         <v>29</v>
       </c>
       <c r="H46" t="str">
-        <f>MID(B46,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="M46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N46" t="str">
-        <f>MID(B46,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2781700</v>
       </c>
       <c r="O46" t="str">
-        <f>MID(B46,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="T46" t="str">
-        <f>CONCATENATE($U$1,M46,O46)</f>
+        <f t="shared" si="7"/>
         <v>label attend_108= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
     </row>
@@ -2614,22 +2659,22 @@
         <v>171</v>
       </c>
       <c r="H47" t="str">
-        <f>MID(B47,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="M47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N47" t="str">
-        <f>MID(B47,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T4495000</v>
       </c>
       <c r="O47" t="str">
-        <f>MID(B47,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="T47" t="str">
-        <f>CONCATENATE($U$1,M47,O47)</f>
+        <f t="shared" si="7"/>
         <v>label attend_109= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
     </row>
@@ -2641,22 +2686,22 @@
         <v>172</v>
       </c>
       <c r="H48" t="str">
-        <f>MID(B48,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="M48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N48" t="str">
-        <f>MID(B48,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T6143400</v>
       </c>
       <c r="O48" t="str">
-        <f>MID(B48,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="T48" t="str">
-        <f>CONCATENATE($U$1,M48,O48)</f>
+        <f t="shared" si="7"/>
         <v>label attend_110= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
     </row>
@@ -2668,22 +2713,22 @@
         <v>3</v>
       </c>
       <c r="H49" t="str">
-        <f>MID(B49,21,40)</f>
+        <f t="shared" si="4"/>
         <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="M49" t="s">
         <v>47</v>
       </c>
       <c r="N49" t="str">
-        <f>MID(B49,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R0536401</v>
       </c>
       <c r="O49" t="str">
-        <f>MID(B49,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="T49" t="str">
-        <f>CONCATENATE($U$1,M49,O49)</f>
+        <f t="shared" si="7"/>
         <v>label bmonth= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -2695,22 +2740,22 @@
         <v>4</v>
       </c>
       <c r="H50" t="str">
-        <f>MID(B50,21,40)</f>
+        <f t="shared" si="4"/>
         <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="M50" t="s">
         <v>48</v>
       </c>
       <c r="N50" t="str">
-        <f>MID(B50,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R0536402</v>
       </c>
       <c r="O50" t="str">
-        <f>MID(B50,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="T50" t="str">
-        <f>CONCATENATE($U$1,M50,O50)</f>
+        <f t="shared" si="7"/>
         <v>label byear= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -2722,22 +2767,22 @@
         <v>7</v>
       </c>
       <c r="H51" t="str">
-        <f>MID(B51,21,40)</f>
+        <f t="shared" si="4"/>
         <v>KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
       <c r="M51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N51" t="str">
-        <f>MID(B51,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R1482600</v>
       </c>
       <c r="O51" t="str">
-        <f>MID(B51,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
       <c r="T51" t="str">
-        <f>CONCATENATE($U$1,M51,O51)</f>
+        <f t="shared" si="7"/>
         <v>label race= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -2749,22 +2794,22 @@
         <v>2</v>
       </c>
       <c r="H52" t="str">
-        <f>MID(B52,21,40)</f>
+        <f t="shared" si="4"/>
         <v>KEY!SEX (SYMBOL) 1997";</v>
       </c>
       <c r="M52" t="s">
         <v>46</v>
       </c>
       <c r="N52" t="str">
-        <f>MID(B52,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R0536300</v>
       </c>
       <c r="O52" t="str">
-        <f>MID(B52,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "KEY!SEX (SYMBOL) 1997";</v>
       </c>
       <c r="T52" t="str">
-        <f>CONCATENATE($U$1,M52,O52)</f>
+        <f t="shared" si="7"/>
         <v>label sex= "KEY!SEX (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -2776,22 +2821,22 @@
         <v>142</v>
       </c>
       <c r="H53" t="str">
-        <f>MID(B53,21,40)</f>
+        <f t="shared" si="4"/>
         <v>PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
       <c r="M53" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N53" t="str">
-        <f>MID(B53,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R0555800</v>
       </c>
       <c r="O53" t="str">
-        <f>MID(B53,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
       <c r="T53" t="str">
-        <f>CONCATENATE($U$1,M53,O53)</f>
+        <f t="shared" si="7"/>
         <v>label psrelpref= "PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
     </row>
@@ -2803,22 +2848,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="str">
-        <f>MID(B54,21,40)</f>
+        <f t="shared" si="4"/>
         <v>PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="M54" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="N54" t="str">
-        <f>MID(B54,9,8)</f>
+        <f t="shared" si="5"/>
         <v>R0000100</v>
       </c>
       <c r="O54" t="str">
-        <f>MID(B54,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="T54" t="str">
-        <f>CONCATENATE($U$1,M54,O54)</f>
+        <f t="shared" si="7"/>
         <v>label pubid= "PUBID - YTH ID CODE 1997";</v>
       </c>
     </row>
@@ -2830,22 +2875,22 @@
         <v>16</v>
       </c>
       <c r="H55" t="str">
-        <f>MID(B55,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="M55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N55" t="str">
-        <f>MID(B55,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S0919600</v>
       </c>
       <c r="O55" t="str">
-        <f>MID(B55,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="T55" t="str">
-        <f>CONCATENATE($U$1,M55,O55)</f>
+        <f t="shared" si="7"/>
         <v>label decide_102= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
     </row>
@@ -2857,22 +2902,22 @@
         <v>24</v>
       </c>
       <c r="H56" t="str">
-        <f>MID(B56,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="M56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N56" t="str">
-        <f>MID(B56,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6317000</v>
       </c>
       <c r="O56" t="str">
-        <f>MID(B56,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="T56" t="str">
-        <f>CONCATENATE($U$1,M56,O56)</f>
+        <f t="shared" si="7"/>
         <v>label decide_105= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
     </row>
@@ -2884,22 +2929,22 @@
         <v>32</v>
       </c>
       <c r="H57" t="str">
-        <f>MID(B57,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="M57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N57" t="str">
-        <f>MID(B57,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782100</v>
       </c>
       <c r="O57" t="str">
-        <f>MID(B57,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="T57" t="str">
-        <f>CONCATENATE($U$1,M57,O57)</f>
+        <f t="shared" si="7"/>
         <v>label decide_108= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
     </row>
@@ -2911,22 +2956,22 @@
         <v>15</v>
       </c>
       <c r="H58" t="str">
-        <f>MID(B58,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="M58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N58" t="str">
-        <f>MID(B58,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S0919500</v>
       </c>
       <c r="O58" t="str">
-        <f>MID(B58,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="T58" t="str">
-        <f>CONCATENATE($U$1,M58,O58)</f>
+        <f t="shared" si="7"/>
         <v>label obey_102= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
     </row>
@@ -2938,22 +2983,22 @@
         <v>23</v>
       </c>
       <c r="H59" t="str">
-        <f>MID(B59,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="M59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N59" t="str">
-        <f>MID(B59,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6316900</v>
       </c>
       <c r="O59" t="str">
-        <f>MID(B59,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="T59" t="str">
-        <f>CONCATENATE($U$1,M59,O59)</f>
+        <f t="shared" si="7"/>
         <v>label obey_105= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
     </row>
@@ -2965,22 +3010,22 @@
         <v>31</v>
       </c>
       <c r="H60" t="str">
-        <f>MID(B60,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="M60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N60" t="str">
-        <f>MID(B60,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782000</v>
       </c>
       <c r="O60" t="str">
-        <f>MID(B60,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="T60" t="str">
-        <f>CONCATENATE($U$1,M60,O60)</f>
+        <f t="shared" si="7"/>
         <v>label obey_108= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
     </row>
@@ -2992,22 +3037,22 @@
         <v>161</v>
       </c>
       <c r="H61" t="str">
-        <f>MID(B61,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R CURR REL PREF 2005";</v>
       </c>
       <c r="M61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N61" t="str">
-        <f>MID(B61,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S5532800</v>
       </c>
       <c r="O61" t="str">
-        <f>MID(B61,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R CURR REL PREF 2005";</v>
       </c>
       <c r="T61" t="str">
-        <f>CONCATENATE($U$1,M61,O61)</f>
+        <f t="shared" si="7"/>
         <v>label relpref_105= "R CURR REL PREF 2005";</v>
       </c>
     </row>
@@ -3019,22 +3064,22 @@
         <v>168</v>
       </c>
       <c r="H62" t="str">
-        <f>MID(B62,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R CURR REL PREF 2008";</v>
       </c>
       <c r="M62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N62" t="str">
-        <f>MID(B62,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2111400</v>
       </c>
       <c r="O62" t="str">
-        <f>MID(B62,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R CURR REL PREF 2008";</v>
       </c>
       <c r="T62" t="str">
-        <f>CONCATENATE($U$1,M62,O62)</f>
+        <f t="shared" si="7"/>
         <v>label relpref_108= "R CURR REL PREF 2008";</v>
       </c>
     </row>
@@ -3046,22 +3091,22 @@
         <v>14</v>
       </c>
       <c r="H63" t="str">
-        <f>MID(B63,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
       </c>
       <c r="M63" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N63" t="str">
-        <f>MID(B63,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S0919400</v>
       </c>
       <c r="O63" t="str">
-        <f>MID(B63,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
       </c>
       <c r="T63" t="str">
-        <f>CONCATENATE($U$1,M63,O63)</f>
+        <f t="shared" si="7"/>
         <v>label values_102= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
       </c>
     </row>
@@ -3073,22 +3118,22 @@
         <v>22</v>
       </c>
       <c r="H64" t="str">
-        <f>MID(B64,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
       </c>
       <c r="M64" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N64" t="str">
-        <f>MID(B64,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6316800</v>
       </c>
       <c r="O64" t="str">
-        <f>MID(B64,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
       </c>
       <c r="T64" t="str">
-        <f>CONCATENATE($U$1,M64,O64)</f>
+        <f t="shared" si="7"/>
         <v>label values_105= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
       </c>
     </row>
@@ -3100,22 +3145,22 @@
         <v>30</v>
       </c>
       <c r="H65" t="str">
-        <f>MID(B65,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
       </c>
       <c r="M65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N65" t="str">
-        <f>MID(B65,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2781900</v>
       </c>
       <c r="O65" t="str">
-        <f>MID(B65,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
       </c>
       <c r="T65" t="str">
-        <f>CONCATENATE($U$1,M65,O65)</f>
+        <f t="shared" si="7"/>
         <v>label values_108= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
       </c>
     </row>
@@ -3127,22 +3172,22 @@
         <v>18</v>
       </c>
       <c r="H66" t="str">
-        <f>MID(B66,21,40)</f>
+        <f t="shared" ref="H66:H71" si="8">MID(B66,21,40)</f>
         <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="M66" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N66" t="str">
-        <f>MID(B66,9,8)</f>
+        <f t="shared" ref="N66:N71" si="9">MID(B66,9,8)</f>
         <v>S0919800</v>
       </c>
       <c r="O66" t="str">
-        <f>MID(B66,18,80)</f>
+        <f t="shared" ref="O66:O71" si="10">MID(B66,18,80)</f>
         <v>= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="T66" t="str">
-        <f>CONCATENATE($U$1,M66,O66)</f>
+        <f t="shared" ref="T66:T71" si="11">CONCATENATE($U$1,M66,O66)</f>
         <v>label pray_102= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
     </row>
@@ -3154,22 +3199,22 @@
         <v>26</v>
       </c>
       <c r="H67" t="str">
-        <f>MID(B67,21,40)</f>
+        <f t="shared" si="8"/>
         <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="M67" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N67" t="str">
-        <f>MID(B67,9,8)</f>
+        <f t="shared" si="9"/>
         <v>S6317200</v>
       </c>
       <c r="O67" t="str">
-        <f>MID(B67,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="T67" t="str">
-        <f>CONCATENATE($U$1,M67,O67)</f>
+        <f t="shared" si="11"/>
         <v>label pray_105= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
     </row>
@@ -3181,22 +3226,22 @@
         <v>34</v>
       </c>
       <c r="H68" t="str">
-        <f>MID(B68,21,40)</f>
+        <f t="shared" si="8"/>
         <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="M68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N68" t="str">
-        <f>MID(B68,9,8)</f>
+        <f t="shared" si="9"/>
         <v>T2782300</v>
       </c>
       <c r="O68" t="str">
-        <f>MID(B68,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="T68" t="str">
-        <f>CONCATENATE($U$1,M68,O68)</f>
+        <f t="shared" si="11"/>
         <v>label pray_108= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
     </row>
@@ -3208,22 +3253,22 @@
         <v>140</v>
       </c>
       <c r="H69" t="str">
-        <f>MID(B69,21,40)</f>
+        <f t="shared" si="8"/>
         <v>WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
       <c r="M69" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="N69" t="str">
-        <f>MID(B69,9,8)</f>
+        <f t="shared" si="9"/>
         <v>R0552300</v>
       </c>
       <c r="O69" t="str">
-        <f>MID(B69,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
       <c r="T69" t="str">
-        <f>CONCATENATE($U$1,M69,O69)</f>
+        <f t="shared" si="11"/>
         <v>label prelpref= "WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
     </row>
@@ -3235,22 +3280,22 @@
         <v>5</v>
       </c>
       <c r="H70" t="str">
-        <f>MID(B70,21,40)</f>
+        <f t="shared" si="8"/>
         <v>WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
       <c r="M70" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="N70" t="str">
-        <f>MID(B70,9,8)</f>
+        <f t="shared" si="9"/>
         <v>R0552200</v>
       </c>
       <c r="O70" t="str">
-        <f>MID(B70,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
       <c r="T70" t="str">
-        <f>CONCATENATE($U$1,M70,O70)</f>
+        <f t="shared" si="11"/>
         <v>label praised= "WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
     </row>
@@ -3262,48 +3307,48 @@
         <v>141</v>
       </c>
       <c r="H71" t="str">
-        <f>MID(B71,21,40)</f>
+        <f t="shared" si="8"/>
         <v>WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
       <c r="M71" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="N71" t="str">
-        <f>MID(B71,9,8)</f>
+        <f t="shared" si="9"/>
         <v>R0555700</v>
       </c>
       <c r="O71" t="str">
-        <f>MID(B71,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
       <c r="T71" t="str">
-        <f>CONCATENATE($U$1,M71,O71)</f>
+        <f t="shared" si="11"/>
         <v>label psraised= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
     </row>
     <row r="100" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M103" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="13:13" x14ac:dyDescent="0.25">
@@ -3313,7 +3358,7 @@
     </row>
     <row r="106" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="13:13" x14ac:dyDescent="0.25">
@@ -3323,87 +3368,87 @@
     </row>
     <row r="108" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M114" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M115" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3422,635 +3467,1025 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
-    <col min="2" max="15" width="5.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
-    <col min="17" max="30" width="6.140625" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="5" width="8.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" style="2" customWidth="1"/>
+    <col min="13" max="17" width="6.7109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" s="3">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="U3" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
         <v>1997</v>
       </c>
-      <c r="R1" s="3">
+      <c r="E4" s="16">
+        <v>1981</v>
+      </c>
+      <c r="F4" s="16">
+        <f>190</f>
+        <v>190</v>
+      </c>
+      <c r="G4" s="16">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="U4" s="2">
+        <f>U3/12</f>
+        <v>15.833333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
         <v>1998</v>
       </c>
-      <c r="S1" s="3">
+      <c r="E5" s="18">
+        <v>1981</v>
+      </c>
+      <c r="F5" s="18">
+        <f>F4+12</f>
+        <v>202</v>
+      </c>
+      <c r="G5" s="18">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="19">
+        <v>3</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
         <v>1999</v>
       </c>
-      <c r="T1" s="3">
+      <c r="E6" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" ref="F6:F17" si="0">F5+12</f>
+        <v>214</v>
+      </c>
+      <c r="G6" s="21">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="22">
+        <v>5</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
         <v>2000</v>
       </c>
-      <c r="U1" s="3">
+      <c r="E7" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F7" s="21">
+        <f>F6+11</f>
+        <v>225</v>
+      </c>
+      <c r="G7" s="21">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="23">
+        <v>7</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
         <v>2001</v>
       </c>
-      <c r="V1" s="3">
+      <c r="E8" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="G8" s="21">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
         <v>2002</v>
       </c>
-      <c r="W1" s="3">
+      <c r="E9" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="G9" s="21">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
         <v>2003</v>
       </c>
-      <c r="X1" s="3">
+      <c r="E10" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="G10" s="21">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
         <v>2004</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="E11" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F11" s="21">
+        <f>F10+10</f>
+        <v>271</v>
+      </c>
+      <c r="G11" s="21">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22">
+        <v>7</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
         <v>2005</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="E12" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="G12" s="21">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22">
+        <v>5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
         <v>2006</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="E13" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="G13" s="21">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
         <v>2007</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="E14" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F14" s="21">
+        <f>F13+9</f>
+        <v>304</v>
+      </c>
+      <c r="G14" s="21">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22">
+        <v>5</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21">
         <v>2008</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="E15" s="21">
+        <v>1981</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="G15" s="21">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22">
+        <v>6</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
         <v>2009</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="E16" s="18">
+        <v>1981</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="G16" s="18">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
+        <v>7</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
         <v>2010</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>1</v>
-      </c>
-      <c r="R2" s="18">
-        <v>1</v>
-      </c>
-      <c r="S2" s="18">
-        <v>1</v>
-      </c>
-      <c r="T2" s="18">
-        <v>1</v>
-      </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-    </row>
-    <row r="3" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="19">
-        <v>1</v>
-      </c>
-      <c r="U3" s="19">
-        <v>1</v>
-      </c>
-      <c r="V3" s="19">
-        <v>1</v>
-      </c>
-      <c r="W3" s="19">
-        <v>1</v>
-      </c>
-      <c r="X3" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13">
-        <v>1</v>
-      </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="14"/>
-    </row>
-    <row r="5" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="E17" s="24">
+        <v>1981</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G17" s="24">
+        <v>29</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25">
+        <v>8</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="27">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27">
+        <v>5</v>
+      </c>
+      <c r="F19" s="27">
+        <v>80</v>
+      </c>
+      <c r="G19" s="27">
+        <v>15</v>
+      </c>
+      <c r="H19" s="27">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>4</v>
+      </c>
+      <c r="J19" s="27">
+        <v>36</v>
+      </c>
+      <c r="K19" s="29">
+        <v>7</v>
+      </c>
+      <c r="L19" s="29">
+        <v>8</v>
+      </c>
+      <c r="M19" s="9">
+        <v>2</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>2</v>
+      </c>
+      <c r="P19" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="33"/>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="33"/>
+    </row>
+    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13">
-        <v>1</v>
-      </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13">
-        <v>1</v>
-      </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="14"/>
-    </row>
-    <row r="7" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="13">
-        <v>1</v>
-      </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="14"/>
-    </row>
-    <row r="8" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="13">
-        <v>1</v>
-      </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="16"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="24">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="16"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
+  <mergeCells count="17">
+    <mergeCell ref="D30:R30"/>
+    <mergeCell ref="D31:R31"/>
+    <mergeCell ref="D32:R32"/>
+    <mergeCell ref="D33:R33"/>
+    <mergeCell ref="D34:R34"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="105" windowWidth="11415" windowHeight="3150"/>
+    <workbookView xWindow="390" yWindow="105" windowWidth="11415" windowHeight="3150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Var rename" sheetId="1" r:id="rId1"/>
@@ -1034,18 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,17 +1079,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1109,10 +1097,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3469,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,26 +3495,26 @@
       <c r="E2" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -3567,33 +3567,33 @@
       </c>
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>1997</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>1981</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <f>190</f>
         <v>190</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>16</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17">
+      <c r="J4" s="11"/>
+      <c r="K4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -3608,17 +3608,17 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>1998</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>1981</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <f>F4+12</f>
         <v>202</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3628,31 +3628,31 @@
         <v>278</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <v>3</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>1999</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>1981</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <f t="shared" ref="F6:F17" si="0">F5+12</f>
         <v>214</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3662,10 +3662,10 @@
         <v>278</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="22">
+      <c r="K6" s="18">
         <v>5</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -3676,17 +3676,17 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>2000</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>1981</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <f>F6+11</f>
         <v>225</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3696,10 +3696,10 @@
         <v>278</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="23">
+      <c r="K7" s="19">
         <v>7</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="19">
         <v>1</v>
       </c>
       <c r="M7" s="5"/>
@@ -3712,17 +3712,17 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>2001</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>1981</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -3732,8 +3732,8 @@
         <v>278</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18">
         <v>4</v>
       </c>
       <c r="M8" s="5"/>
@@ -3746,17 +3746,17 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>2002</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>1981</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3766,8 +3766,8 @@
         <v>278</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18">
         <v>3</v>
       </c>
       <c r="M9" s="5">
@@ -3790,17 +3790,17 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>2003</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>1981</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -3810,8 +3810,8 @@
         <v>278</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18">
         <v>4</v>
       </c>
       <c r="M10" s="5"/>
@@ -3824,17 +3824,17 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>2004</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>1981</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="17">
         <f>F10+10</f>
         <v>271</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -3844,8 +3844,8 @@
         <v>278</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18">
         <v>7</v>
       </c>
       <c r="M11" s="5"/>
@@ -3858,17 +3858,17 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>2005</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>1981</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3880,8 +3880,8 @@
       <c r="J12" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18">
         <v>5</v>
       </c>
       <c r="M12" s="5">
@@ -3904,17 +3904,17 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>2006</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>1981</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="17">
         <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -3924,8 +3924,8 @@
         <v>278</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18">
         <v>1</v>
       </c>
       <c r="M13" s="5"/>
@@ -3938,17 +3938,17 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>2007</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>1981</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="17">
         <f>F13+9</f>
         <v>304</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="17">
         <v>26</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3958,8 +3958,8 @@
         <v>278</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18">
         <v>5</v>
       </c>
       <c r="M14" s="5"/>
@@ -3972,17 +3972,17 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>2008</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>1981</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="17">
         <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3994,8 +3994,8 @@
       <c r="J15" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18">
         <v>6</v>
       </c>
       <c r="M15" s="5">
@@ -4018,17 +4018,17 @@
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>2009</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>1981</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="14">
         <v>28</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -4038,31 +4038,31 @@
         <v>278</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
         <v>7</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="20">
         <v>2010</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="20">
         <v>1981</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="20">
         <v>29</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -4072,46 +4072,46 @@
         <v>278</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21">
         <v>8</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="23" t="s">
         <v>286</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="23" t="s">
         <v>289</v>
       </c>
       <c r="M18" s="9" t="s">
@@ -4135,31 +4135,31 @@
       <c r="C19" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="23">
         <v>15</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="23">
         <v>5</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="23">
         <v>80</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="23">
         <v>15</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="23">
         <v>2</v>
       </c>
       <c r="I19" s="9">
         <v>4</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="23">
         <v>36</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="25">
         <v>7</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="25">
         <v>8</v>
       </c>
       <c r="M19" s="9">
@@ -4179,181 +4179,181 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="31"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="33"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="27"/>
     </row>
     <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="33"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="27"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="33"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="27"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="33"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="27"/>
     </row>
     <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
       <c r="R27" s="2" t="s">
         <v>292</v>
       </c>
@@ -4376,107 +4376,97 @@
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="28" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D30:R30"/>
-    <mergeCell ref="D31:R31"/>
-    <mergeCell ref="D32:R32"/>
-    <mergeCell ref="D33:R33"/>
-    <mergeCell ref="D34:R34"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
     <mergeCell ref="D27:Q27"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -4484,8 +4474,19 @@
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D30:R30"/>
+    <mergeCell ref="D31:R31"/>
+    <mergeCell ref="D32:R32"/>
+    <mergeCell ref="D33:R33"/>
+    <mergeCell ref="D34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -1088,12 +1088,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,12 +1109,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3470,7 +3476,7 @@
   <dimension ref="B2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,26 +3501,26 @@
       <c r="E2" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -4182,154 +4188,154 @@
       <c r="C20" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="27"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="27"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
       <c r="R25" s="27"/>
     </row>
     <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="2" t="s">
         <v>292</v>
       </c>
@@ -4338,22 +4344,22 @@
       <c r="C27" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
       <c r="R27" s="2" t="s">
         <v>292</v>
       </c>
@@ -4381,92 +4387,97 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D30:R30"/>
+    <mergeCell ref="D31:R31"/>
+    <mergeCell ref="D32:R32"/>
+    <mergeCell ref="D33:R33"/>
+    <mergeCell ref="D34:R34"/>
     <mergeCell ref="D27:Q27"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -4479,11 +4490,6 @@
     <mergeCell ref="D24:Q24"/>
     <mergeCell ref="D25:Q25"/>
     <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D30:R30"/>
-    <mergeCell ref="D31:R31"/>
-    <mergeCell ref="D32:R32"/>
-    <mergeCell ref="D33:R33"/>
-    <mergeCell ref="D34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="105" windowWidth="11415" windowHeight="3150" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="105" windowWidth="11415" windowHeight="3150"/>
   </bookViews>
   <sheets>
     <sheet name="Var rename" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="314">
   <si>
     <t xml:space="preserve">  label R0000100 = "PUBID - YTH ID CODE 1997";</t>
   </si>
@@ -546,102 +546,12 @@
     <t xml:space="preserve">  label T5201400 = "CV_AGE_INT_DATE 2010";</t>
   </si>
   <si>
-    <t>famrel097</t>
-  </si>
-  <si>
-    <t>famrel098</t>
-  </si>
-  <si>
-    <t>famrel099</t>
-  </si>
-  <si>
-    <t>famrel100</t>
-  </si>
-  <si>
     <t>In a typical week, how many days from 0 to 7 do you do something religious as a family such as go to church, pray or read the scriptures together?</t>
   </si>
   <si>
-    <t>agemon_097</t>
-  </si>
-  <si>
-    <t>agemon_098</t>
-  </si>
-  <si>
-    <t>agemon_099</t>
-  </si>
-  <si>
-    <t>agemon_100</t>
-  </si>
-  <si>
-    <t>agemon_101</t>
-  </si>
-  <si>
-    <t>agemon_102</t>
-  </si>
-  <si>
-    <t>agemon_103</t>
-  </si>
-  <si>
-    <t>agemon_104</t>
-  </si>
-  <si>
-    <t>agemon_105</t>
-  </si>
-  <si>
-    <t>agemon_106</t>
-  </si>
-  <si>
-    <t>agemon_107</t>
-  </si>
-  <si>
-    <t>agemon_108</t>
-  </si>
-  <si>
-    <t>agemon_109</t>
-  </si>
-  <si>
     <t>agemon_110</t>
   </si>
   <si>
-    <t>ageyear_097</t>
-  </si>
-  <si>
-    <t>ageyear_098</t>
-  </si>
-  <si>
-    <t>ageyear_099</t>
-  </si>
-  <si>
-    <t>ageyear_100</t>
-  </si>
-  <si>
-    <t>ageyear_101</t>
-  </si>
-  <si>
-    <t>ageyear_102</t>
-  </si>
-  <si>
-    <t>ageyear_103</t>
-  </si>
-  <si>
-    <t>ageyear_104</t>
-  </si>
-  <si>
-    <t>ageyear_105</t>
-  </si>
-  <si>
-    <t>ageyear_106</t>
-  </si>
-  <si>
-    <t>ageyear_107</t>
-  </si>
-  <si>
-    <t>ageyear_108</t>
-  </si>
-  <si>
-    <t>ageyear_109</t>
-  </si>
-  <si>
     <t>ageyear_110</t>
   </si>
   <si>
@@ -654,39 +564,6 @@
     <t>decide_108</t>
   </si>
   <si>
-    <t>attend_100</t>
-  </si>
-  <si>
-    <t>attend_101</t>
-  </si>
-  <si>
-    <t>attend_102</t>
-  </si>
-  <si>
-    <t>attend_103</t>
-  </si>
-  <si>
-    <t>attend_104</t>
-  </si>
-  <si>
-    <t>attend_105</t>
-  </si>
-  <si>
-    <t>attend_106</t>
-  </si>
-  <si>
-    <t>attend_107</t>
-  </si>
-  <si>
-    <t>attend_108</t>
-  </si>
-  <si>
-    <t>attend_109</t>
-  </si>
-  <si>
-    <t>attend_110</t>
-  </si>
-  <si>
     <t>birthmonth</t>
   </si>
   <si>
@@ -747,15 +624,6 @@
     <t>What is your current religious preference?</t>
   </si>
   <si>
-    <t>todo_102</t>
-  </si>
-  <si>
-    <t>todo_105</t>
-  </si>
-  <si>
-    <t>todo_108</t>
-  </si>
-  <si>
     <t>God has nothing to do with what happens to me personally.</t>
   </si>
   <si>
@@ -901,6 +769,198 @@
   </si>
   <si>
     <t>Figure 1. Person view of data</t>
+  </si>
+  <si>
+    <t>Calendaric year of subject's birth</t>
+  </si>
+  <si>
+    <t>Age in months at the time of the interview</t>
+  </si>
+  <si>
+    <t>Calendaric year in which interview occurred, measurement wave</t>
+  </si>
+  <si>
+    <t>Age in years at the time of the interveiw</t>
+  </si>
+  <si>
+    <t>agemon_1997</t>
+  </si>
+  <si>
+    <t>agemon_1998</t>
+  </si>
+  <si>
+    <t>agemon_1999</t>
+  </si>
+  <si>
+    <t>agemon_2000</t>
+  </si>
+  <si>
+    <t>agemon_2001</t>
+  </si>
+  <si>
+    <t>agemon_2002</t>
+  </si>
+  <si>
+    <t>agemon_2003</t>
+  </si>
+  <si>
+    <t>agemon_2004</t>
+  </si>
+  <si>
+    <t>agemon_2005</t>
+  </si>
+  <si>
+    <t>agemon_2006</t>
+  </si>
+  <si>
+    <t>agemon_2007</t>
+  </si>
+  <si>
+    <t>agemon_2008</t>
+  </si>
+  <si>
+    <t>agemon_2009</t>
+  </si>
+  <si>
+    <t>agemon_2010</t>
+  </si>
+  <si>
+    <t>ageyear_1997</t>
+  </si>
+  <si>
+    <t>ageyear_1998</t>
+  </si>
+  <si>
+    <t>ageyear_1999</t>
+  </si>
+  <si>
+    <t>ageyear_2000</t>
+  </si>
+  <si>
+    <t>ageyear_2001</t>
+  </si>
+  <si>
+    <t>ageyear_2002</t>
+  </si>
+  <si>
+    <t>ageyear_2003</t>
+  </si>
+  <si>
+    <t>ageyear_2004</t>
+  </si>
+  <si>
+    <t>ageyear_2005</t>
+  </si>
+  <si>
+    <t>ageyear_2006</t>
+  </si>
+  <si>
+    <t>ageyear_2007</t>
+  </si>
+  <si>
+    <t>ageyear_2008</t>
+  </si>
+  <si>
+    <t>ageyear_2009</t>
+  </si>
+  <si>
+    <t>ageyear_2010</t>
+  </si>
+  <si>
+    <t>attend_2000</t>
+  </si>
+  <si>
+    <t>attend_2001</t>
+  </si>
+  <si>
+    <t>attend_2002</t>
+  </si>
+  <si>
+    <t>attend_2003</t>
+  </si>
+  <si>
+    <t>attend_2004</t>
+  </si>
+  <si>
+    <t>attend_2005</t>
+  </si>
+  <si>
+    <t>attend_2006</t>
+  </si>
+  <si>
+    <t>attend_2007</t>
+  </si>
+  <si>
+    <t>attend_2008</t>
+  </si>
+  <si>
+    <t>attend_2009</t>
+  </si>
+  <si>
+    <t>attend_2010</t>
+  </si>
+  <si>
+    <t>decide_2002</t>
+  </si>
+  <si>
+    <t>decide_2005</t>
+  </si>
+  <si>
+    <t>decide_2008</t>
+  </si>
+  <si>
+    <t>obey_2002</t>
+  </si>
+  <si>
+    <t>obey_2005</t>
+  </si>
+  <si>
+    <t>obey_2008</t>
+  </si>
+  <si>
+    <t>relpref_2005</t>
+  </si>
+  <si>
+    <t>relpref_2008</t>
+  </si>
+  <si>
+    <t>values_2002</t>
+  </si>
+  <si>
+    <t>values_2005</t>
+  </si>
+  <si>
+    <t>values_2008</t>
+  </si>
+  <si>
+    <t>pray_2002</t>
+  </si>
+  <si>
+    <t>pray_2005</t>
+  </si>
+  <si>
+    <t>pray_2008</t>
+  </si>
+  <si>
+    <t>todo_2002</t>
+  </si>
+  <si>
+    <t>todo_2005</t>
+  </si>
+  <si>
+    <t>todo_2008</t>
+  </si>
+  <si>
+    <t>famrel_2000</t>
+  </si>
+  <si>
+    <t>famrel_1999</t>
+  </si>
+  <si>
+    <t>famrel_1998</t>
+  </si>
+  <si>
+    <t>famrel_1997</t>
   </si>
 </sst>
 </file>
@@ -929,7 +989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,8 +1026,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor theme="6" tint="0.39991454817346722"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1004,11 +1069,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1016,9 +1169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,9 +1179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,15 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,9 +1209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,6 +1222,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1112,8 +1256,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,1922 +1616,1922 @@
       <c r="N1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H33" si="0">MID(B2,21,40)</f>
-        <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
+        <f>MID(B2,21,40)</f>
+        <v>PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N33" si="1">MID(B2,9,8)</f>
-        <v>R0323900</v>
+        <f>MID(B2,9,8)</f>
+        <v>R0000100</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O33" si="2">MID(B2,18,80)</f>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
+        <f>MID(B2,18,80)</f>
+        <v>= "PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T33" si="3">CONCATENATE($U$1,M2,O2)</f>
-        <v>label famrel097= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
+        <f>CONCATENATE($U$1,M2,O2)</f>
+        <v>label pubid= "PUBID - YTH ID CODE 1997";</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
+        <f>MID(B3,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="1"/>
-        <v>R2165200</v>
+        <f>MID(B3,9,8)</f>
+        <v>R0323900</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
+        <f>MID(B3,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel098= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
+        <f>CONCATENATE($U$1,M3,O3)</f>
+        <v>label famrel_1997= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
+        <f>MID(B4,21,40)</f>
+        <v>KEY!SEX (SYMBOL) 1997";</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="1"/>
-        <v>R3483100</v>
+        <f>MID(B4,9,8)</f>
+        <v>R0536300</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
+        <f>MID(B4,18,80)</f>
+        <v>= "KEY!SEX (SYMBOL) 1997";</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel099= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
+        <f>CONCATENATE($U$1,M4,O4)</f>
+        <v>label sex= "KEY!SEX (SYMBOL) 1997";</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
+        <f>MID(B5,21,40)</f>
+        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="M5" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="1"/>
-        <v>R4881300</v>
+        <f>MID(B5,9,8)</f>
+        <v>R0536401</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
+        <f>MID(B5,18,80)</f>
+        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel100= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
+        <f>CONCATENATE($U$1,M5,O5)</f>
+        <v>label bmonth= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
+        <f>MID(B6,21,40)</f>
+        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="1"/>
-        <v>R1193900</v>
+        <f>MID(B6,9,8)</f>
+        <v>R0536402</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
+        <f>MID(B6,18,80)</f>
+        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_097= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
+        <f>CONCATENATE($U$1,M6,O6)</f>
+        <v>label byear= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
+        <f>MID(B7,21,40)</f>
+        <v>WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>R2553400</v>
+        <f>MID(B7,9,8)</f>
+        <v>R0552200</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
+        <f>MID(B7,18,80)</f>
+        <v>= "WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_098= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
+        <f>CONCATENATE($U$1,M7,O7)</f>
+        <v>label praised= "WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
+        <f>MID(B8,21,40)</f>
+        <v>WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
       <c r="M8" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>R3876200</v>
+        <f>MID(B8,9,8)</f>
+        <v>R0552300</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
+        <f>MID(B8,18,80)</f>
+        <v>= "WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_099= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
+        <f>CONCATENATE($U$1,M8,O8)</f>
+        <v>label prelpref= "WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
+        <f>MID(B9,21,40)</f>
+        <v>WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
       <c r="M9" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>R5453600</v>
+        <f>MID(B9,9,8)</f>
+        <v>R0555700</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
+        <f>MID(B9,18,80)</f>
+        <v>= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_100= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
+        <f>CONCATENATE($U$1,M9,O9)</f>
+        <v>label psraised= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
+        <f>MID(B10,21,40)</f>
+        <v>PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
       <c r="M10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>R7215900</v>
+        <f>MID(B10,9,8)</f>
+        <v>R0555800</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
+        <f>MID(B10,18,80)</f>
+        <v>= "PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_101= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
+        <f>CONCATENATE($U$1,M10,O10)</f>
+        <v>label psrelpref= "PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
+        <f>MID(B11,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>S1531300</v>
+        <f>MID(B11,9,8)</f>
+        <v>R1193900</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
+        <f>MID(B11,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_102= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
+        <f>CONCATENATE($U$1,M11,O11)</f>
+        <v>label agemon_1997= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
+        <f>MID(B12,21,40)</f>
+        <v>CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>S2000900</v>
+        <f>MID(B12,9,8)</f>
+        <v>R1194100</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
+        <f>MID(B12,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_103= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
+        <f>CONCATENATE($U$1,M12,O12)</f>
+        <v>label ageyear_1997= "CV_AGE_INT_DATE 1997";</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
+        <f>MID(B13,21,40)</f>
+        <v>CV_SAMPLE_TYPE 1997";</v>
       </c>
       <c r="M13" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>S3801000</v>
+        <f>MID(B13,9,8)</f>
+        <v>R1235800</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
+        <f>MID(B13,18,80)</f>
+        <v>= "CV_SAMPLE_TYPE 1997";</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_104= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
+        <f>CONCATENATE($U$1,M13,O13)</f>
+        <v>label samplesype= "CV_SAMPLE_TYPE 1997";</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
+        <f>MID(B14,21,40)</f>
+        <v>KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
       <c r="M14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>S5400900</v>
+        <f>MID(B14,9,8)</f>
+        <v>R1482600</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
+        <f>MID(B14,18,80)</f>
+        <v>= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_105= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
+        <f>CONCATENATE($U$1,M14,O14)</f>
+        <v>label race= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
+        <f>MID(B15,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="M15" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v>S7501100</v>
+        <f>MID(B15,9,8)</f>
+        <v>R2165200</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
+        <f>MID(B15,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_106= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
+        <f>CONCATENATE($U$1,M15,O15)</f>
+        <v>label famrel_1998= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
+        <f>MID(B16,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="M16" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="1"/>
-        <v>T0008400</v>
+        <f>MID(B16,9,8)</f>
+        <v>R2553400</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
+        <f>MID(B16,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_107= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
+        <f>CONCATENATE($U$1,M16,O16)</f>
+        <v>label agemon_1998= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
+        <f>MID(B17,21,40)</f>
+        <v>CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="M17" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v>T2011000</v>
+        <f>MID(B17,9,8)</f>
+        <v>R2553500</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
+        <f>MID(B17,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_108= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
+        <f>CONCATENATE($U$1,M17,O17)</f>
+        <v>label ageyear_1998= "CV_AGE_INT_DATE 1998";</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
+        <f>MID(B18,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="M18" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v>T3601400</v>
+        <f>MID(B18,9,8)</f>
+        <v>R3483100</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
+        <f>MID(B18,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_109= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
+        <f>CONCATENATE($U$1,M18,O18)</f>
+        <v>label famrel_1999= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
+        <f>MID(B19,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="M19" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v>T5201300</v>
+        <f>MID(B19,9,8)</f>
+        <v>R3876200</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
+        <f>MID(B19,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_110= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
+        <f>CONCATENATE($U$1,M19,O19)</f>
+        <v>label agemon_1999= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 1997";</v>
+        <f>MID(B20,21,40)</f>
+        <v>CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="M20" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v>R1194100</v>
+        <f>MID(B20,9,8)</f>
+        <v>R3876300</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 1997";</v>
+        <f>MID(B20,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_097= "CV_AGE_INT_DATE 1997";</v>
+        <f>CONCATENATE($U$1,M20,O20)</f>
+        <v>label ageyear_1999= "CV_AGE_INT_DATE 1999";</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 1998";</v>
+        <f>MID(B21,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="M21" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v>R2553500</v>
+        <f>MID(B21,9,8)</f>
+        <v>R4881300</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 1998";</v>
+        <f>MID(B21,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_098= "CV_AGE_INT_DATE 1998";</v>
+        <f>CONCATENATE($U$1,M21,O21)</f>
+        <v>label famrel_2000= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 1999";</v>
+        <f>MID(B22,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="1"/>
-        <v>R3876300</v>
+        <f>MID(B22,9,8)</f>
+        <v>R4893400</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 1999";</v>
+        <f>MID(B22,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_099= "CV_AGE_INT_DATE 1999";</v>
+        <f>CONCATENATE($U$1,M22,O22)</f>
+        <v>label attend_2000= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2000";</v>
+        <f>MID(B23,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="M23" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="1"/>
-        <v>R5453700</v>
+        <f>MID(B23,9,8)</f>
+        <v>R5453600</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2000";</v>
+        <f>MID(B23,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_100= "CV_AGE_INT_DATE 2000";</v>
+        <f>CONCATENATE($U$1,M23,O23)</f>
+        <v>label agemon_2000= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2001";</v>
+        <f>MID(B24,21,40)</f>
+        <v>CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="M24" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="1"/>
-        <v>R7216000</v>
+        <f>MID(B24,9,8)</f>
+        <v>R5453700</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2001";</v>
+        <f>MID(B24,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_101= "CV_AGE_INT_DATE 2001";</v>
+        <f>CONCATENATE($U$1,M24,O24)</f>
+        <v>label ageyear_2000= "CV_AGE_INT_DATE 2000";</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2002";</v>
+        <f>MID(B25,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="M25" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="1"/>
-        <v>S1531400</v>
+        <f>MID(B25,9,8)</f>
+        <v>R6520100</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2002";</v>
+        <f>MID(B25,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_102= "CV_AGE_INT_DATE 2002";</v>
+        <f>CONCATENATE($U$1,M25,O25)</f>
+        <v>label attend_2001= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2003";</v>
+        <f>MID(B26,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="M26" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="1"/>
-        <v>S2001000</v>
+        <f>MID(B26,9,8)</f>
+        <v>R7215900</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2003";</v>
+        <f>MID(B26,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_103= "CV_AGE_INT_DATE 2003";</v>
+        <f>CONCATENATE($U$1,M26,O26)</f>
+        <v>label agemon_2001= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2004";</v>
+        <f>MID(B27,21,40)</f>
+        <v>CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="M27" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="1"/>
-        <v>S3801100</v>
+        <f>MID(B27,9,8)</f>
+        <v>R7216000</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2004";</v>
+        <f>MID(B27,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_104= "CV_AGE_INT_DATE 2004";</v>
+        <f>CONCATENATE($U$1,M27,O27)</f>
+        <v>label ageyear_2001= "CV_AGE_INT_DATE 2001";</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2005";</v>
+        <f>MID(B28,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="M28" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="1"/>
-        <v>S5401000</v>
+        <f>MID(B28,9,8)</f>
+        <v>S0919300</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2005";</v>
+        <f>MID(B28,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_105= "CV_AGE_INT_DATE 2005";</v>
+        <f>CONCATENATE($U$1,M28,O28)</f>
+        <v>label attend_2002= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2006";</v>
+        <f>MID(B29,21,40)</f>
+        <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
       </c>
       <c r="M29" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="1"/>
-        <v>S7501200</v>
+        <f>MID(B29,9,8)</f>
+        <v>S0919400</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2006";</v>
+        <f>MID(B29,18,80)</f>
+        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_106= "CV_AGE_INT_DATE 2006";</v>
+        <f>CONCATENATE($U$1,M29,O29)</f>
+        <v>label values_2002= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2007";</v>
+        <f>MID(B30,21,40)</f>
+        <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="M30" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="1"/>
-        <v>T0008500</v>
+        <f>MID(B30,9,8)</f>
+        <v>S0919500</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2007";</v>
+        <f>MID(B30,18,80)</f>
+        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_107= "CV_AGE_INT_DATE 2007";</v>
+        <f>CONCATENATE($U$1,M30,O30)</f>
+        <v>label obey_2002= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2008";</v>
+        <f>MID(B31,21,40)</f>
+        <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="1"/>
-        <v>T2011100</v>
+        <f>MID(B31,9,8)</f>
+        <v>S0919600</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2008";</v>
+        <f>MID(B31,18,80)</f>
+        <v>= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_108= "CV_AGE_INT_DATE 2008";</v>
+        <f>CONCATENATE($U$1,M31,O31)</f>
+        <v>label decide_2002= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2009";</v>
+        <f>MID(B32,21,40)</f>
+        <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="M32" t="s">
-        <v>206</v>
+        <v>307</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="1"/>
-        <v>T3601500</v>
+        <f>MID(B32,9,8)</f>
+        <v>S0919700</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2009";</v>
+        <f>MID(B32,18,80)</f>
+        <v>= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_109= "CV_AGE_INT_DATE 2009";</v>
+        <f>CONCATENATE($U$1,M32,O32)</f>
+        <v>label todo_2002= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2010";</v>
+        <f>MID(B33,21,40)</f>
+        <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="M33" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="1"/>
-        <v>T5201400</v>
+        <f>MID(B33,9,8)</f>
+        <v>S0919800</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2010";</v>
+        <f>MID(B33,18,80)</f>
+        <v>= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_110= "CV_AGE_INT_DATE 2010";</v>
+        <f>CONCATENATE($U$1,M33,O33)</f>
+        <v>label pray_2002= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34:H65" si="4">MID(B34,21,40)</f>
-        <v>CV_SAMPLE_TYPE 1997";</v>
+        <f>MID(B34,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="M34" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ref="N34:N65" si="5">MID(B34,9,8)</f>
-        <v>R1235800</v>
+        <f>MID(B34,9,8)</f>
+        <v>S1531300</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" ref="O34:O65" si="6">MID(B34,18,80)</f>
-        <v>= "CV_SAMPLE_TYPE 1997";</v>
+        <f>MID(B34,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" ref="T34:T65" si="7">CONCATENATE($U$1,M34,O34)</f>
-        <v>label samplesype= "CV_SAMPLE_TYPE 1997";</v>
+        <f>CONCATENATE($U$1,M34,O34)</f>
+        <v>label agemon_2002= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="4"/>
-        <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
+        <f>MID(B35,21,40)</f>
+        <v>CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="M35" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="5"/>
-        <v>S0919700</v>
+        <f>MID(B35,9,8)</f>
+        <v>S1531400</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="6"/>
-        <v>= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
+        <f>MID(B35,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="7"/>
-        <v>label todo_102= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
+        <f>CONCATENATE($U$1,M35,O35)</f>
+        <v>label ageyear_2002= "CV_AGE_INT_DATE 2002";</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="4"/>
-        <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
+        <f>MID(B36,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="M36" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="5"/>
-        <v>S6317100</v>
+        <f>MID(B36,9,8)</f>
+        <v>S2000900</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="6"/>
-        <v>= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
+        <f>MID(B36,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="7"/>
-        <v>label todo_105= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
+        <f>CONCATENATE($U$1,M36,O36)</f>
+        <v>label agemon_2003= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="4"/>
-        <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
+        <f>MID(B37,21,40)</f>
+        <v>CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="M37" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782200</v>
+        <f>MID(B37,9,8)</f>
+        <v>S2001000</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="6"/>
-        <v>= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
+        <f>MID(B37,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="7"/>
-        <v>label todo_108= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
+        <f>CONCATENATE($U$1,M37,O37)</f>
+        <v>label ageyear_2003= "CV_AGE_INT_DATE 2003";</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
+        <f>MID(B38,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="M38" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="5"/>
-        <v>R4893400</v>
+        <f>MID(B38,9,8)</f>
+        <v>S2987800</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
+        <f>MID(B38,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_100= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
+        <f>CONCATENATE($U$1,M38,O38)</f>
+        <v>label attend_2003= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
+        <f>MID(B39,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="M39" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="5"/>
-        <v>R6520100</v>
+        <f>MID(B39,9,8)</f>
+        <v>S3801000</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
+        <f>MID(B39,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_101= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
+        <f>CONCATENATE($U$1,M39,O39)</f>
+        <v>label agemon_2004= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
+        <f>MID(B40,21,40)</f>
+        <v>CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="M40" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="5"/>
-        <v>S0919300</v>
+        <f>MID(B40,9,8)</f>
+        <v>S3801100</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
+        <f>MID(B40,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_102= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
+        <f>CONCATENATE($U$1,M40,O40)</f>
+        <v>label ageyear_2004= "CV_AGE_INT_DATE 2004";</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
+        <f>MID(B41,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="M41" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="5"/>
-        <v>S2987800</v>
+        <f>MID(B41,9,8)</f>
+        <v>S4681700</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
+        <f>MID(B41,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_103= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
+        <f>CONCATENATE($U$1,M41,O41)</f>
+        <v>label attend_2004= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
+        <f>MID(B42,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="M42" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="5"/>
-        <v>S4681700</v>
+        <f>MID(B42,9,8)</f>
+        <v>S5400900</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
+        <f>MID(B42,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_104= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
+        <f>CONCATENATE($U$1,M42,O42)</f>
+        <v>label agemon_2005= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
+        <f>MID(B43,21,40)</f>
+        <v>CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="M43" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="5"/>
-        <v>S6316700</v>
+        <f>MID(B43,9,8)</f>
+        <v>S5401000</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
+        <f>MID(B43,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_105= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
+        <f>CONCATENATE($U$1,M43,O43)</f>
+        <v>label ageyear_2005= "CV_AGE_INT_DATE 2005";</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
+        <f>MID(B44,21,40)</f>
+        <v>R CURR REL PREF 2005";</v>
       </c>
       <c r="M44" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="5"/>
-        <v>S8331500</v>
+        <f>MID(B44,9,8)</f>
+        <v>S5532800</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
+        <f>MID(B44,18,80)</f>
+        <v>= "R CURR REL PREF 2005";</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_106= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
+        <f>CONCATENATE($U$1,M44,O44)</f>
+        <v>label relpref_2005= "R CURR REL PREF 2005";</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
+        <f>MID(B45,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="M45" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="5"/>
-        <v>T0739400</v>
+        <f>MID(B45,9,8)</f>
+        <v>S6316700</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
+        <f>MID(B45,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_107= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
+        <f>CONCATENATE($U$1,M45,O45)</f>
+        <v>label attend_2005= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
+        <f>MID(B46,21,40)</f>
+        <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
       </c>
       <c r="M46" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="5"/>
-        <v>T2781700</v>
+        <f>MID(B46,9,8)</f>
+        <v>S6316800</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
+        <f>MID(B46,18,80)</f>
+        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_108= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
+        <f>CONCATENATE($U$1,M46,O46)</f>
+        <v>label values_2005= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
+        <f>MID(B47,21,40)</f>
+        <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="M47" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="5"/>
-        <v>T4495000</v>
+        <f>MID(B47,9,8)</f>
+        <v>S6316900</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
+        <f>MID(B47,18,80)</f>
+        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_109= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
+        <f>CONCATENATE($U$1,M47,O47)</f>
+        <v>label obey_2005= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+        <f>MID(B48,21,40)</f>
+        <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="M48" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="5"/>
-        <v>T6143400</v>
+        <f>MID(B48,9,8)</f>
+        <v>S6317000</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+        <f>MID(B48,18,80)</f>
+        <v>= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_110= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+        <f>CONCATENATE($U$1,M48,O48)</f>
+        <v>label decide_2005= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="4"/>
-        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
+        <f>MID(B49,21,40)</f>
+        <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="5"/>
-        <v>R0536401</v>
+        <f>MID(B49,9,8)</f>
+        <v>S6317100</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="6"/>
-        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+        <f>MID(B49,18,80)</f>
+        <v>= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="7"/>
-        <v>label bmonth= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+        <f>CONCATENATE($U$1,M49,O49)</f>
+        <v>label todo_2005= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="4"/>
-        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
+        <f>MID(B50,21,40)</f>
+        <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="M50" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="5"/>
-        <v>R0536402</v>
+        <f>MID(B50,9,8)</f>
+        <v>S6317200</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="6"/>
-        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+        <f>MID(B50,18,80)</f>
+        <v>= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="7"/>
-        <v>label byear= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+        <f>CONCATENATE($U$1,M50,O50)</f>
+        <v>label pray_2005= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="4"/>
-        <v>KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
+        <f>MID(B51,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="M51" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="5"/>
-        <v>R1482600</v>
+        <f>MID(B51,9,8)</f>
+        <v>S7501100</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="6"/>
-        <v>= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
+        <f>MID(B51,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="7"/>
-        <v>label race= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
+        <f>CONCATENATE($U$1,M51,O51)</f>
+        <v>label agemon_2006= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="4"/>
-        <v>KEY!SEX (SYMBOL) 1997";</v>
+        <f>MID(B52,21,40)</f>
+        <v>CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="M52" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="5"/>
-        <v>R0536300</v>
+        <f>MID(B52,9,8)</f>
+        <v>S7501200</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="6"/>
-        <v>= "KEY!SEX (SYMBOL) 1997";</v>
+        <f>MID(B52,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="7"/>
-        <v>label sex= "KEY!SEX (SYMBOL) 1997";</v>
+        <f>CONCATENATE($U$1,M52,O52)</f>
+        <v>label ageyear_2006= "CV_AGE_INT_DATE 2006";</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="4"/>
-        <v>PR SP/PART CURR RELIG PREF? 1997";</v>
+        <f>MID(B53,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="M53" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="5"/>
-        <v>R0555800</v>
+        <f>MID(B53,9,8)</f>
+        <v>S8331500</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="6"/>
-        <v>= "PR SP/PART CURR RELIG PREF? 1997";</v>
+        <f>MID(B53,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="7"/>
-        <v>label psrelpref= "PR SP/PART CURR RELIG PREF? 1997";</v>
+        <f>CONCATENATE($U$1,M53,O53)</f>
+        <v>label attend_2006= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="4"/>
-        <v>PUBID - YTH ID CODE 1997";</v>
+        <f>MID(B54,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="M54" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="5"/>
-        <v>R0000100</v>
+        <f>MID(B54,9,8)</f>
+        <v>T0008400</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="6"/>
-        <v>= "PUBID - YTH ID CODE 1997";</v>
+        <f>MID(B54,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="7"/>
-        <v>label pubid= "PUBID - YTH ID CODE 1997";</v>
+        <f>CONCATENATE($U$1,M54,O54)</f>
+        <v>label agemon_2007= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="4"/>
-        <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
+        <f>MID(B55,21,40)</f>
+        <v>CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="M55" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="5"/>
-        <v>S0919600</v>
+        <f>MID(B55,9,8)</f>
+        <v>T0008500</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
+        <f>MID(B55,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="7"/>
-        <v>label decide_102= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
+        <f>CONCATENATE($U$1,M55,O55)</f>
+        <v>label ageyear_2007= "CV_AGE_INT_DATE 2007";</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="4"/>
-        <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
+        <f>MID(B56,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="M56" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="5"/>
-        <v>S6317000</v>
+        <f>MID(B56,9,8)</f>
+        <v>T0739400</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
+        <f>MID(B56,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="7"/>
-        <v>label decide_105= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
+        <f>CONCATENATE($U$1,M56,O56)</f>
+        <v>label attend_2007= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="4"/>
-        <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
+        <f>MID(B57,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="M57" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782100</v>
+        <f>MID(B57,9,8)</f>
+        <v>T2011000</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
+        <f>MID(B57,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="7"/>
-        <v>label decide_108= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
+        <f>CONCATENATE($U$1,M57,O57)</f>
+        <v>label agemon_2008= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="4"/>
-        <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
+        <f>MID(B58,21,40)</f>
+        <v>CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="M58" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="5"/>
-        <v>S0919500</v>
+        <f>MID(B58,9,8)</f>
+        <v>T2011100</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
+        <f>MID(B58,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="7"/>
-        <v>label obey_102= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
+        <f>CONCATENATE($U$1,M58,O58)</f>
+        <v>label ageyear_2008= "CV_AGE_INT_DATE 2008";</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="4"/>
-        <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
+        <f>MID(B59,21,40)</f>
+        <v>R CURR REL PREF 2008";</v>
       </c>
       <c r="M59" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="5"/>
-        <v>S6316900</v>
+        <f>MID(B59,9,8)</f>
+        <v>T2111400</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
+        <f>MID(B59,18,80)</f>
+        <v>= "R CURR REL PREF 2008";</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="7"/>
-        <v>label obey_105= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
+        <f>CONCATENATE($U$1,M59,O59)</f>
+        <v>label relpref_2008= "R CURR REL PREF 2008";</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="4"/>
-        <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
+        <f>MID(B60,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="M60" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782000</v>
+        <f>MID(B60,9,8)</f>
+        <v>T2781700</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
+        <f>MID(B60,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="7"/>
-        <v>label obey_108= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
+        <f>CONCATENATE($U$1,M60,O60)</f>
+        <v>label attend_2008= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="4"/>
-        <v>R CURR REL PREF 2005";</v>
+        <f>MID(B61,21,40)</f>
+        <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
       </c>
       <c r="M61" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="5"/>
-        <v>S5532800</v>
+        <f>MID(B61,9,8)</f>
+        <v>T2781900</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R CURR REL PREF 2005";</v>
+        <f>MID(B61,18,80)</f>
+        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="7"/>
-        <v>label relpref_105= "R CURR REL PREF 2005";</v>
+        <f>CONCATENATE($U$1,M61,O61)</f>
+        <v>label values_2008= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="4"/>
-        <v>R CURR REL PREF 2008";</v>
+        <f>MID(B62,21,40)</f>
+        <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="M62" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="5"/>
-        <v>T2111400</v>
+        <f>MID(B62,9,8)</f>
+        <v>T2782000</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R CURR REL PREF 2008";</v>
+        <f>MID(B62,18,80)</f>
+        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="7"/>
-        <v>label relpref_108= "R CURR REL PREF 2008";</v>
+        <f>CONCATENATE($U$1,M62,O62)</f>
+        <v>label obey_2008= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="4"/>
-        <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
+        <f>MID(B63,21,40)</f>
+        <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="M63" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="5"/>
-        <v>S0919400</v>
+        <f>MID(B63,9,8)</f>
+        <v>T2782100</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
+        <f>MID(B63,18,80)</f>
+        <v>= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="7"/>
-        <v>label values_102= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
+        <f>CONCATENATE($U$1,M63,O63)</f>
+        <v>label decide_2008= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="4"/>
-        <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
+        <f>MID(B64,21,40)</f>
+        <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="M64" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="5"/>
-        <v>S6316800</v>
+        <f>MID(B64,9,8)</f>
+        <v>T2782200</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
+        <f>MID(B64,18,80)</f>
+        <v>= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="7"/>
-        <v>label values_105= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
+        <f>CONCATENATE($U$1,M64,O64)</f>
+        <v>label todo_2008= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="4"/>
-        <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
+        <f>MID(B65,21,40)</f>
+        <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="M65" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="5"/>
-        <v>T2781900</v>
+        <f>MID(B65,9,8)</f>
+        <v>T2782300</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
+        <f>MID(B65,18,80)</f>
+        <v>= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="7"/>
-        <v>label values_108= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
+        <f>CONCATENATE($U$1,M65,O65)</f>
+        <v>label pray_2008= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H71" si="8">MID(B66,21,40)</f>
-        <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
+        <f>MID(B66,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="M66" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" ref="N66:N71" si="9">MID(B66,9,8)</f>
-        <v>S0919800</v>
+        <f>MID(B66,9,8)</f>
+        <v>T3601400</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" ref="O66:O71" si="10">MID(B66,18,80)</f>
-        <v>= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
+        <f>MID(B66,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" ref="T66:T71" si="11">CONCATENATE($U$1,M66,O66)</f>
-        <v>label pray_102= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
+        <f>CONCATENATE($U$1,M66,O66)</f>
+        <v>label agemon_2009= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="8"/>
-        <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
+        <f>MID(B67,21,40)</f>
+        <v>CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="M67" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="9"/>
-        <v>S6317200</v>
+        <f>MID(B67,9,8)</f>
+        <v>T3601500</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="10"/>
-        <v>= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
+        <f>MID(B67,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="11"/>
-        <v>label pray_105= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
+        <f>CONCATENATE($U$1,M67,O67)</f>
+        <v>label ageyear_2009= "CV_AGE_INT_DATE 2009";</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="8"/>
-        <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
+        <f>MID(B68,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="M68" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="9"/>
-        <v>T2782300</v>
+        <f>MID(B68,9,8)</f>
+        <v>T4495000</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="10"/>
-        <v>= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
+        <f>MID(B68,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="11"/>
-        <v>label pray_108= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
+        <f>CONCATENATE($U$1,M68,O68)</f>
+        <v>label attend_2009= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="8"/>
-        <v>WHAT IS PR CURR RELIG PREF? 1997";</v>
+        <f>MID(B69,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="M69" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="9"/>
-        <v>R0552300</v>
+        <f>MID(B69,9,8)</f>
+        <v>T5201300</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="10"/>
-        <v>= "WHAT IS PR CURR RELIG PREF? 1997";</v>
+        <f>MID(B69,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="11"/>
-        <v>label prelpref= "WHAT IS PR CURR RELIG PREF? 1997";</v>
+        <f>CONCATENATE($U$1,M69,O69)</f>
+        <v>label agemon_2010= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="8"/>
-        <v>WHAT RELIG PR RAISED IN? 1997";</v>
+        <f>MID(B70,21,40)</f>
+        <v>CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="M70" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="9"/>
-        <v>R0552200</v>
+        <f>MID(B70,9,8)</f>
+        <v>T5201400</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="10"/>
-        <v>= "WHAT RELIG PR RAISED IN? 1997";</v>
+        <f>MID(B70,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="11"/>
-        <v>label praised= "WHAT RELIG PR RAISED IN? 1997";</v>
+        <f>CONCATENATE($U$1,M70,O70)</f>
+        <v>label ageyear_2010= "CV_AGE_INT_DATE 2010";</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="8"/>
-        <v>WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
+        <f>MID(B71,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="M71" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="9"/>
-        <v>R0555700</v>
+        <f>MID(B71,9,8)</f>
+        <v>T6143400</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="10"/>
-        <v>= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
+        <f>MID(B71,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="11"/>
-        <v>label psraised= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
+        <f>CONCATENATE($U$1,M71,O71)</f>
+        <v>label attend_2010= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
     </row>
     <row r="100" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M100" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M101" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M103" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="13:13" x14ac:dyDescent="0.25">
@@ -3364,7 +3541,7 @@
     </row>
     <row r="106" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="13:13" x14ac:dyDescent="0.25">
@@ -3374,93 +3551,93 @@
     </row>
     <row r="108" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M114" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M115" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M118" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M119" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M120" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M121" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M122" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T71">
     <sortState ref="A2:T71">
-      <sortCondition ref="H1:H71"/>
+      <sortCondition ref="A1:A71"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:P74">
@@ -3473,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U34"/>
+  <dimension ref="B2:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,1007 +3669,1154 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="36"/>
+    </row>
+    <row r="3" spans="3:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="F4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="U4" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C4" s="11">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="10">
         <v>1997</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="10">
         <v>1981</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F5" s="10">
         <f>190</f>
         <v>190</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G5" s="10">
         <v>16</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="13">
+      <c r="H5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11">
         <v>1</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="U4" s="2">
-        <f>U3/12</f>
+      <c r="L5" s="11"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="38"/>
+      <c r="U5" s="2">
+        <f>U4/12</f>
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="6">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D6" s="12">
         <v>1998</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E6" s="12">
         <v>1981</v>
       </c>
-      <c r="F5" s="14">
-        <f>F4+12</f>
+      <c r="F6" s="12">
+        <f>F5+12</f>
         <v>202</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G6" s="12">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="15">
+      <c r="H6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="13">
         <v>3</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="39">
         <v>1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="12">
         <v>1999</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="12">
         <v>1981</v>
       </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F17" si="0">F5+12</f>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7:F18" si="0">F6+12</f>
         <v>214</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="12">
         <v>18</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="18">
+      <c r="H7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="13">
         <v>5</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="39">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="12">
         <v>2000</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="12">
         <v>1981</v>
       </c>
-      <c r="F7" s="17">
-        <f>F6+11</f>
+      <c r="F8" s="12">
+        <f>F7+11</f>
         <v>225</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="12">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="19">
+      <c r="H8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="43">
         <v>7</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="43">
         <v>1</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="39">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="12">
         <v>2001</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="12">
         <v>1981</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="12">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18">
+      <c r="H9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13">
         <v>4</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="39">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="12">
         <v>2002</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="12">
         <v>1981</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="12">
         <v>21</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18">
+      <c r="H10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13">
         <v>3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M10" s="14">
         <v>1</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N10" s="14">
         <v>1</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O10" s="14">
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P10" s="14">
         <v>1</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q10" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="39">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="12">
         <v>2003</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="12">
         <v>1981</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="12">
         <v>22</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18">
+      <c r="H11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13">
         <v>4</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="39">
         <v>1</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="12">
         <v>2004</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="12">
         <v>1981</v>
       </c>
-      <c r="F11" s="17">
-        <f>F10+10</f>
+      <c r="F12" s="12">
+        <f>F11+10</f>
         <v>271</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="12">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18">
+      <c r="H12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13">
         <v>7</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="39">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="12">
         <v>2005</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="12">
         <v>1981</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="12">
         <v>24</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18">
+      <c r="H13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M13" s="14">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N13" s="14">
         <v>1</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O13" s="14">
         <v>0</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P13" s="14">
         <v>1</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q13" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="39">
         <v>1</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="12">
         <v>2006</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="12">
         <v>1981</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="12">
         <v>25</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18">
+      <c r="H14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
         <v>1</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="40"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="39">
         <v>1</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="12">
         <v>2007</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="12">
         <v>1981</v>
       </c>
-      <c r="F14" s="17">
-        <f>F13+9</f>
+      <c r="F15" s="12">
+        <f>F14+9</f>
         <v>304</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="12">
         <v>26</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18">
+      <c r="H15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13">
         <v>5</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="40"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="39">
         <v>1</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="12">
         <v>2008</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="12">
         <v>1981</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="12">
         <v>27</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18">
+      <c r="H16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M16" s="14">
         <v>1</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N16" s="14">
         <v>1</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O16" s="14">
         <v>1</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P16" s="14">
         <v>0</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q16" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="6">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="39">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="12">
         <v>2009</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="12">
         <v>1981</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="12">
         <v>28</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
+      <c r="H17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13">
         <v>7</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="8">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
         <v>1</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="15">
         <v>2010</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="15">
         <v>1981</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G18" s="15">
         <v>29</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21">
+      <c r="H18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16">
         <v>8</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="42"/>
+    </row>
+    <row r="19" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="18">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18">
+        <v>80</v>
+      </c>
+      <c r="G21" s="18">
+        <v>15</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4</v>
+      </c>
+      <c r="J21" s="18">
+        <v>36</v>
+      </c>
+      <c r="K21" s="19">
+        <v>7</v>
+      </c>
+      <c r="L21" s="19">
+        <v>8</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D19" s="23">
-        <v>15</v>
-      </c>
-      <c r="E19" s="23">
-        <v>5</v>
-      </c>
-      <c r="F19" s="23">
-        <v>80</v>
-      </c>
-      <c r="G19" s="23">
-        <v>15</v>
-      </c>
-      <c r="H19" s="23">
-        <v>2</v>
-      </c>
-      <c r="I19" s="9">
-        <v>4</v>
-      </c>
-      <c r="J19" s="23">
-        <v>36</v>
-      </c>
-      <c r="K19" s="25">
-        <v>7</v>
-      </c>
-      <c r="L19" s="25">
-        <v>8</v>
-      </c>
-      <c r="M19" s="9">
-        <v>2</v>
-      </c>
-      <c r="N19" s="9">
-        <v>2</v>
-      </c>
-      <c r="O19" s="9">
-        <v>2</v>
-      </c>
-      <c r="P19" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+    </row>
+    <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="20"/>
+    </row>
+    <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="27"/>
-    </row>
-    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="21"/>
+    </row>
+    <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="21"/>
+    </row>
+    <row r="31" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="3:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="27"/>
-    </row>
-    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-    </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D30:R30"/>
-    <mergeCell ref="D31:R31"/>
-    <mergeCell ref="D32:R32"/>
-    <mergeCell ref="D33:R33"/>
-    <mergeCell ref="D34:R34"/>
-    <mergeCell ref="D27:Q27"/>
+  <mergeCells count="21">
+    <mergeCell ref="D34:Q34"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="D33:Q33"/>
     <mergeCell ref="D22:Q22"/>
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
     <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D37:R37"/>
+    <mergeCell ref="D38:R38"/>
+    <mergeCell ref="D39:R39"/>
+    <mergeCell ref="D40:R40"/>
+    <mergeCell ref="D41:R41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F15 F12 F8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/databank/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="313">
   <si>
     <t xml:space="preserve">  label R0000100 = "PUBID - YTH ID CODE 1997";</t>
   </si>
@@ -643,9 +643,6 @@
   </si>
   <si>
     <t>psrelpref</t>
-  </si>
-  <si>
-    <t>pubid</t>
   </si>
   <si>
     <t>prelpref</t>
@@ -1229,40 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,6 +1255,39 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1613,7 @@
       <c r="N1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1627,23 +1624,23 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <f>MID(B2,21,40)</f>
+        <f t="shared" ref="H2:H33" si="0">MID(B2,21,40)</f>
         <v>PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="M2" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="N2" t="str">
-        <f>MID(B2,9,8)</f>
+        <f t="shared" ref="N2:N33" si="1">MID(B2,9,8)</f>
         <v>R0000100</v>
       </c>
       <c r="O2" t="str">
-        <f>MID(B2,18,80)</f>
+        <f t="shared" ref="O2:O33" si="2">MID(B2,18,80)</f>
         <v>= "PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE($U$1,M2,O2)</f>
-        <v>label pubid= "PUBID - YTH ID CODE 1997";</v>
+        <f t="shared" ref="T2:T33" si="3">CONCATENATE($U$1,M2,O2)</f>
+        <v>label id= "PUBID - YTH ID CODE 1997";</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1654,22 +1651,22 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <f>MID(B3,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="M3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N3" t="str">
-        <f>MID(B3,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0323900</v>
       </c>
       <c r="O3" t="str">
-        <f>MID(B3,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="T3" t="str">
-        <f>CONCATENATE($U$1,M3,O3)</f>
+        <f t="shared" si="3"/>
         <v>label famrel_1997= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
     </row>
@@ -1681,22 +1678,22 @@
         <v>2</v>
       </c>
       <c r="H4" t="str">
-        <f>MID(B4,21,40)</f>
+        <f t="shared" si="0"/>
         <v>KEY!SEX (SYMBOL) 1997";</v>
       </c>
       <c r="M4" t="s">
         <v>46</v>
       </c>
       <c r="N4" t="str">
-        <f>MID(B4,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0536300</v>
       </c>
       <c r="O4" t="str">
-        <f>MID(B4,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "KEY!SEX (SYMBOL) 1997";</v>
       </c>
       <c r="T4" t="str">
-        <f>CONCATENATE($U$1,M4,O4)</f>
+        <f t="shared" si="3"/>
         <v>label sex= "KEY!SEX (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -1708,22 +1705,22 @@
         <v>3</v>
       </c>
       <c r="H5" t="str">
-        <f>MID(B5,21,40)</f>
+        <f t="shared" si="0"/>
         <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
       <c r="N5" t="str">
-        <f>MID(B5,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0536401</v>
       </c>
       <c r="O5" t="str">
-        <f>MID(B5,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="T5" t="str">
-        <f>CONCATENATE($U$1,M5,O5)</f>
+        <f t="shared" si="3"/>
         <v>label bmonth= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -1735,22 +1732,22 @@
         <v>4</v>
       </c>
       <c r="H6" t="str">
-        <f>MID(B6,21,40)</f>
+        <f t="shared" si="0"/>
         <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="M6" t="s">
         <v>48</v>
       </c>
       <c r="N6" t="str">
-        <f>MID(B6,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0536402</v>
       </c>
       <c r="O6" t="str">
-        <f>MID(B6,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
       <c r="T6" t="str">
-        <f>CONCATENATE($U$1,M6,O6)</f>
+        <f t="shared" si="3"/>
         <v>label byear= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -1762,22 +1759,22 @@
         <v>5</v>
       </c>
       <c r="H7" t="str">
-        <f>MID(B7,21,40)</f>
+        <f t="shared" si="0"/>
         <v>WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
       <c r="M7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N7" t="str">
-        <f>MID(B7,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0552200</v>
       </c>
       <c r="O7" t="str">
-        <f>MID(B7,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
       <c r="T7" t="str">
-        <f>CONCATENATE($U$1,M7,O7)</f>
+        <f t="shared" si="3"/>
         <v>label praised= "WHAT RELIG PR RAISED IN? 1997";</v>
       </c>
     </row>
@@ -1789,22 +1786,22 @@
         <v>140</v>
       </c>
       <c r="H8" t="str">
-        <f>MID(B8,21,40)</f>
+        <f t="shared" si="0"/>
         <v>WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
       <c r="M8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N8" t="str">
-        <f>MID(B8,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0552300</v>
       </c>
       <c r="O8" t="str">
-        <f>MID(B8,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
       <c r="T8" t="str">
-        <f>CONCATENATE($U$1,M8,O8)</f>
+        <f t="shared" si="3"/>
         <v>label prelpref= "WHAT IS PR CURR RELIG PREF? 1997";</v>
       </c>
     </row>
@@ -1816,22 +1813,22 @@
         <v>141</v>
       </c>
       <c r="H9" t="str">
-        <f>MID(B9,21,40)</f>
+        <f t="shared" si="0"/>
         <v>WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N9" t="str">
-        <f>MID(B9,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0555700</v>
       </c>
       <c r="O9" t="str">
-        <f>MID(B9,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
       <c r="T9" t="str">
-        <f>CONCATENATE($U$1,M9,O9)</f>
+        <f t="shared" si="3"/>
         <v>label psraised= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
       </c>
     </row>
@@ -1843,22 +1840,22 @@
         <v>142</v>
       </c>
       <c r="H10" t="str">
-        <f>MID(B10,21,40)</f>
+        <f t="shared" si="0"/>
         <v>PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
       <c r="M10" t="s">
         <v>207</v>
       </c>
       <c r="N10" t="str">
-        <f>MID(B10,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R0555800</v>
       </c>
       <c r="O10" t="str">
-        <f>MID(B10,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
       <c r="T10" t="str">
-        <f>CONCATENATE($U$1,M10,O10)</f>
+        <f t="shared" si="3"/>
         <v>label psrelpref= "PR SP/PART CURR RELIG PREF? 1997";</v>
       </c>
     </row>
@@ -1870,22 +1867,22 @@
         <v>143</v>
       </c>
       <c r="H11" t="str">
-        <f>MID(B11,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="M11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N11" t="str">
-        <f>MID(B11,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R1193900</v>
       </c>
       <c r="O11" t="str">
-        <f>MID(B11,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="T11" t="str">
-        <f>CONCATENATE($U$1,M11,O11)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_1997= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
     </row>
@@ -1897,22 +1894,22 @@
         <v>144</v>
       </c>
       <c r="H12" t="str">
-        <f>MID(B12,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="M12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N12" t="str">
-        <f>MID(B12,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R1194100</v>
       </c>
       <c r="O12" t="str">
-        <f>MID(B12,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="T12" t="str">
-        <f>CONCATENATE($U$1,M12,O12)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_1997= "CV_AGE_INT_DATE 1997";</v>
       </c>
     </row>
@@ -1924,22 +1921,22 @@
         <v>6</v>
       </c>
       <c r="H13" t="str">
-        <f>MID(B13,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_SAMPLE_TYPE 1997";</v>
       </c>
       <c r="M13" t="s">
         <v>196</v>
       </c>
       <c r="N13" t="str">
-        <f>MID(B13,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R1235800</v>
       </c>
       <c r="O13" t="str">
-        <f>MID(B13,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_SAMPLE_TYPE 1997";</v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE($U$1,M13,O13)</f>
+        <f t="shared" si="3"/>
         <v>label samplesype= "CV_SAMPLE_TYPE 1997";</v>
       </c>
     </row>
@@ -1951,22 +1948,22 @@
         <v>7</v>
       </c>
       <c r="H14" t="str">
-        <f>MID(B14,21,40)</f>
+        <f t="shared" si="0"/>
         <v>KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
       <c r="M14" t="s">
         <v>183</v>
       </c>
       <c r="N14" t="str">
-        <f>MID(B14,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R1482600</v>
       </c>
       <c r="O14" t="str">
-        <f>MID(B14,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE($U$1,M14,O14)</f>
+        <f t="shared" si="3"/>
         <v>label race= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
       </c>
     </row>
@@ -1978,22 +1975,22 @@
         <v>8</v>
       </c>
       <c r="H15" t="str">
-        <f>MID(B15,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="M15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N15" t="str">
-        <f>MID(B15,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R2165200</v>
       </c>
       <c r="O15" t="str">
-        <f>MID(B15,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="T15" t="str">
-        <f>CONCATENATE($U$1,M15,O15)</f>
+        <f t="shared" si="3"/>
         <v>label famrel_1998= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
     </row>
@@ -2005,22 +2002,22 @@
         <v>145</v>
       </c>
       <c r="H16" t="str">
-        <f>MID(B16,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="M16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N16" t="str">
-        <f>MID(B16,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R2553400</v>
       </c>
       <c r="O16" t="str">
-        <f>MID(B16,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE($U$1,M16,O16)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_1998= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
     </row>
@@ -2032,22 +2029,22 @@
         <v>146</v>
       </c>
       <c r="H17" t="str">
-        <f>MID(B17,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="M17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N17" t="str">
-        <f>MID(B17,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R2553500</v>
       </c>
       <c r="O17" t="str">
-        <f>MID(B17,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE($U$1,M17,O17)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_1998= "CV_AGE_INT_DATE 1998";</v>
       </c>
     </row>
@@ -2059,22 +2056,22 @@
         <v>9</v>
       </c>
       <c r="H18" t="str">
-        <f>MID(B18,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="M18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N18" t="str">
-        <f>MID(B18,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R3483100</v>
       </c>
       <c r="O18" t="str">
-        <f>MID(B18,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="T18" t="str">
-        <f>CONCATENATE($U$1,M18,O18)</f>
+        <f t="shared" si="3"/>
         <v>label famrel_1999= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
     </row>
@@ -2086,22 +2083,22 @@
         <v>147</v>
       </c>
       <c r="H19" t="str">
-        <f>MID(B19,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="M19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N19" t="str">
-        <f>MID(B19,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R3876200</v>
       </c>
       <c r="O19" t="str">
-        <f>MID(B19,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="T19" t="str">
-        <f>CONCATENATE($U$1,M19,O19)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_1999= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
     </row>
@@ -2113,22 +2110,22 @@
         <v>148</v>
       </c>
       <c r="H20" t="str">
-        <f>MID(B20,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="M20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N20" t="str">
-        <f>MID(B20,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R3876300</v>
       </c>
       <c r="O20" t="str">
-        <f>MID(B20,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="T20" t="str">
-        <f>CONCATENATE($U$1,M20,O20)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_1999= "CV_AGE_INT_DATE 1999";</v>
       </c>
     </row>
@@ -2140,22 +2137,22 @@
         <v>10</v>
       </c>
       <c r="H21" t="str">
-        <f>MID(B21,21,40)</f>
+        <f t="shared" si="0"/>
         <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="M21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N21" t="str">
-        <f>MID(B21,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R4881300</v>
       </c>
       <c r="O21" t="str">
-        <f>MID(B21,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="T21" t="str">
-        <f>CONCATENATE($U$1,M21,O21)</f>
+        <f t="shared" si="3"/>
         <v>label famrel_2000= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
     </row>
@@ -2167,22 +2164,22 @@
         <v>11</v>
       </c>
       <c r="H22" t="str">
-        <f>MID(B22,21,40)</f>
+        <f t="shared" si="0"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="M22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N22" t="str">
-        <f>MID(B22,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R4893400</v>
       </c>
       <c r="O22" t="str">
-        <f>MID(B22,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="T22" t="str">
-        <f>CONCATENATE($U$1,M22,O22)</f>
+        <f t="shared" si="3"/>
         <v>label attend_2000= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
     </row>
@@ -2194,22 +2191,22 @@
         <v>149</v>
       </c>
       <c r="H23" t="str">
-        <f>MID(B23,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="M23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N23" t="str">
-        <f>MID(B23,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R5453600</v>
       </c>
       <c r="O23" t="str">
-        <f>MID(B23,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="T23" t="str">
-        <f>CONCATENATE($U$1,M23,O23)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_2000= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
     </row>
@@ -2221,22 +2218,22 @@
         <v>150</v>
       </c>
       <c r="H24" t="str">
-        <f>MID(B24,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="M24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N24" t="str">
-        <f>MID(B24,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R5453700</v>
       </c>
       <c r="O24" t="str">
-        <f>MID(B24,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="T24" t="str">
-        <f>CONCATENATE($U$1,M24,O24)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_2000= "CV_AGE_INT_DATE 2000";</v>
       </c>
     </row>
@@ -2248,22 +2245,22 @@
         <v>12</v>
       </c>
       <c r="H25" t="str">
-        <f>MID(B25,21,40)</f>
+        <f t="shared" si="0"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="M25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N25" t="str">
-        <f>MID(B25,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R6520100</v>
       </c>
       <c r="O25" t="str">
-        <f>MID(B25,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="T25" t="str">
-        <f>CONCATENATE($U$1,M25,O25)</f>
+        <f t="shared" si="3"/>
         <v>label attend_2001= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
     </row>
@@ -2275,22 +2272,22 @@
         <v>151</v>
       </c>
       <c r="H26" t="str">
-        <f>MID(B26,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="M26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N26" t="str">
-        <f>MID(B26,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R7215900</v>
       </c>
       <c r="O26" t="str">
-        <f>MID(B26,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="T26" t="str">
-        <f>CONCATENATE($U$1,M26,O26)</f>
+        <f t="shared" si="3"/>
         <v>label agemon_2001= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
     </row>
@@ -2302,22 +2299,22 @@
         <v>152</v>
       </c>
       <c r="H27" t="str">
-        <f>MID(B27,21,40)</f>
+        <f t="shared" si="0"/>
         <v>CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="M27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N27" t="str">
-        <f>MID(B27,9,8)</f>
+        <f t="shared" si="1"/>
         <v>R7216000</v>
       </c>
       <c r="O27" t="str">
-        <f>MID(B27,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="T27" t="str">
-        <f>CONCATENATE($U$1,M27,O27)</f>
+        <f t="shared" si="3"/>
         <v>label ageyear_2001= "CV_AGE_INT_DATE 2001";</v>
       </c>
     </row>
@@ -2329,22 +2326,22 @@
         <v>13</v>
       </c>
       <c r="H28" t="str">
-        <f>MID(B28,21,40)</f>
+        <f t="shared" si="0"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="M28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N28" t="str">
-        <f>MID(B28,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S0919300</v>
       </c>
       <c r="O28" t="str">
-        <f>MID(B28,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="T28" t="str">
-        <f>CONCATENATE($U$1,M28,O28)</f>
+        <f t="shared" si="3"/>
         <v>label attend_2002= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
     </row>
@@ -2356,22 +2353,22 @@
         <v>14</v>
       </c>
       <c r="H29" t="str">
-        <f>MID(B29,21,40)</f>
+        <f t="shared" si="0"/>
         <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
       </c>
       <c r="M29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N29" t="str">
-        <f>MID(B29,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S0919400</v>
       </c>
       <c r="O29" t="str">
-        <f>MID(B29,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
       </c>
       <c r="T29" t="str">
-        <f>CONCATENATE($U$1,M29,O29)</f>
+        <f t="shared" si="3"/>
         <v>label values_2002= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
       </c>
     </row>
@@ -2383,22 +2380,22 @@
         <v>15</v>
       </c>
       <c r="H30" t="str">
-        <f>MID(B30,21,40)</f>
+        <f t="shared" si="0"/>
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="M30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N30" t="str">
-        <f>MID(B30,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S0919500</v>
       </c>
       <c r="O30" t="str">
-        <f>MID(B30,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="T30" t="str">
-        <f>CONCATENATE($U$1,M30,O30)</f>
+        <f t="shared" si="3"/>
         <v>label obey_2002= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
     </row>
@@ -2410,22 +2407,22 @@
         <v>16</v>
       </c>
       <c r="H31" t="str">
-        <f>MID(B31,21,40)</f>
+        <f t="shared" si="0"/>
         <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="M31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N31" t="str">
-        <f>MID(B31,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S0919600</v>
       </c>
       <c r="O31" t="str">
-        <f>MID(B31,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="T31" t="str">
-        <f>CONCATENATE($U$1,M31,O31)</f>
+        <f t="shared" si="3"/>
         <v>label decide_2002= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
     </row>
@@ -2437,22 +2434,22 @@
         <v>17</v>
       </c>
       <c r="H32" t="str">
-        <f>MID(B32,21,40)</f>
+        <f t="shared" si="0"/>
         <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="M32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N32" t="str">
-        <f>MID(B32,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S0919700</v>
       </c>
       <c r="O32" t="str">
-        <f>MID(B32,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="T32" t="str">
-        <f>CONCATENATE($U$1,M32,O32)</f>
+        <f t="shared" si="3"/>
         <v>label todo_2002= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
     </row>
@@ -2464,22 +2461,22 @@
         <v>18</v>
       </c>
       <c r="H33" t="str">
-        <f>MID(B33,21,40)</f>
+        <f t="shared" si="0"/>
         <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="M33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N33" t="str">
-        <f>MID(B33,9,8)</f>
+        <f t="shared" si="1"/>
         <v>S0919800</v>
       </c>
       <c r="O33" t="str">
-        <f>MID(B33,18,80)</f>
+        <f t="shared" si="2"/>
         <v>= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="T33" t="str">
-        <f>CONCATENATE($U$1,M33,O33)</f>
+        <f t="shared" si="3"/>
         <v>label pray_2002= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
     </row>
@@ -2491,22 +2488,22 @@
         <v>153</v>
       </c>
       <c r="H34" t="str">
-        <f>MID(B34,21,40)</f>
+        <f t="shared" ref="H34:H65" si="4">MID(B34,21,40)</f>
         <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="M34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N34" t="str">
-        <f>MID(B34,9,8)</f>
+        <f t="shared" ref="N34:N65" si="5">MID(B34,9,8)</f>
         <v>S1531300</v>
       </c>
       <c r="O34" t="str">
-        <f>MID(B34,18,80)</f>
+        <f t="shared" ref="O34:O65" si="6">MID(B34,18,80)</f>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="T34" t="str">
-        <f>CONCATENATE($U$1,M34,O34)</f>
+        <f t="shared" ref="T34:T65" si="7">CONCATENATE($U$1,M34,O34)</f>
         <v>label agemon_2002= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
     </row>
@@ -2518,22 +2515,22 @@
         <v>154</v>
       </c>
       <c r="H35" t="str">
-        <f>MID(B35,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="M35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N35" t="str">
-        <f>MID(B35,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S1531400</v>
       </c>
       <c r="O35" t="str">
-        <f>MID(B35,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="T35" t="str">
-        <f>CONCATENATE($U$1,M35,O35)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2002= "CV_AGE_INT_DATE 2002";</v>
       </c>
     </row>
@@ -2545,22 +2542,22 @@
         <v>155</v>
       </c>
       <c r="H36" t="str">
-        <f>MID(B36,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="M36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N36" t="str">
-        <f>MID(B36,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S2000900</v>
       </c>
       <c r="O36" t="str">
-        <f>MID(B36,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="T36" t="str">
-        <f>CONCATENATE($U$1,M36,O36)</f>
+        <f t="shared" si="7"/>
         <v>label agemon_2003= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
     </row>
@@ -2572,22 +2569,22 @@
         <v>156</v>
       </c>
       <c r="H37" t="str">
-        <f>MID(B37,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N37" t="str">
-        <f>MID(B37,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S2001000</v>
       </c>
       <c r="O37" t="str">
-        <f>MID(B37,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="T37" t="str">
-        <f>CONCATENATE($U$1,M37,O37)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2003= "CV_AGE_INT_DATE 2003";</v>
       </c>
     </row>
@@ -2599,22 +2596,22 @@
         <v>19</v>
       </c>
       <c r="H38" t="str">
-        <f>MID(B38,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="M38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N38" t="str">
-        <f>MID(B38,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S2987800</v>
       </c>
       <c r="O38" t="str">
-        <f>MID(B38,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="T38" t="str">
-        <f>CONCATENATE($U$1,M38,O38)</f>
+        <f t="shared" si="7"/>
         <v>label attend_2003= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
     </row>
@@ -2626,22 +2623,22 @@
         <v>157</v>
       </c>
       <c r="H39" t="str">
-        <f>MID(B39,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="M39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N39" t="str">
-        <f>MID(B39,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S3801000</v>
       </c>
       <c r="O39" t="str">
-        <f>MID(B39,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="T39" t="str">
-        <f>CONCATENATE($U$1,M39,O39)</f>
+        <f t="shared" si="7"/>
         <v>label agemon_2004= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
     </row>
@@ -2653,22 +2650,22 @@
         <v>158</v>
       </c>
       <c r="H40" t="str">
-        <f>MID(B40,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="M40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N40" t="str">
-        <f>MID(B40,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S3801100</v>
       </c>
       <c r="O40" t="str">
-        <f>MID(B40,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="T40" t="str">
-        <f>CONCATENATE($U$1,M40,O40)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2004= "CV_AGE_INT_DATE 2004";</v>
       </c>
     </row>
@@ -2680,22 +2677,22 @@
         <v>20</v>
       </c>
       <c r="H41" t="str">
-        <f>MID(B41,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="M41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N41" t="str">
-        <f>MID(B41,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S4681700</v>
       </c>
       <c r="O41" t="str">
-        <f>MID(B41,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="T41" t="str">
-        <f>CONCATENATE($U$1,M41,O41)</f>
+        <f t="shared" si="7"/>
         <v>label attend_2004= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
     </row>
@@ -2707,22 +2704,22 @@
         <v>159</v>
       </c>
       <c r="H42" t="str">
-        <f>MID(B42,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="M42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N42" t="str">
-        <f>MID(B42,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S5400900</v>
       </c>
       <c r="O42" t="str">
-        <f>MID(B42,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="T42" t="str">
-        <f>CONCATENATE($U$1,M42,O42)</f>
+        <f t="shared" si="7"/>
         <v>label agemon_2005= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
     </row>
@@ -2734,22 +2731,22 @@
         <v>160</v>
       </c>
       <c r="H43" t="str">
-        <f>MID(B43,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="M43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N43" t="str">
-        <f>MID(B43,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S5401000</v>
       </c>
       <c r="O43" t="str">
-        <f>MID(B43,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="T43" t="str">
-        <f>CONCATENATE($U$1,M43,O43)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2005= "CV_AGE_INT_DATE 2005";</v>
       </c>
     </row>
@@ -2761,22 +2758,22 @@
         <v>161</v>
       </c>
       <c r="H44" t="str">
-        <f>MID(B44,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R CURR REL PREF 2005";</v>
       </c>
       <c r="M44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N44" t="str">
-        <f>MID(B44,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S5532800</v>
       </c>
       <c r="O44" t="str">
-        <f>MID(B44,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R CURR REL PREF 2005";</v>
       </c>
       <c r="T44" t="str">
-        <f>CONCATENATE($U$1,M44,O44)</f>
+        <f t="shared" si="7"/>
         <v>label relpref_2005= "R CURR REL PREF 2005";</v>
       </c>
     </row>
@@ -2788,22 +2785,22 @@
         <v>21</v>
       </c>
       <c r="H45" t="str">
-        <f>MID(B45,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="M45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N45" t="str">
-        <f>MID(B45,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6316700</v>
       </c>
       <c r="O45" t="str">
-        <f>MID(B45,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="T45" t="str">
-        <f>CONCATENATE($U$1,M45,O45)</f>
+        <f t="shared" si="7"/>
         <v>label attend_2005= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
     </row>
@@ -2815,22 +2812,22 @@
         <v>22</v>
       </c>
       <c r="H46" t="str">
-        <f>MID(B46,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
       </c>
       <c r="M46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N46" t="str">
-        <f>MID(B46,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6316800</v>
       </c>
       <c r="O46" t="str">
-        <f>MID(B46,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
       </c>
       <c r="T46" t="str">
-        <f>CONCATENATE($U$1,M46,O46)</f>
+        <f t="shared" si="7"/>
         <v>label values_2005= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
       </c>
     </row>
@@ -2842,22 +2839,22 @@
         <v>23</v>
       </c>
       <c r="H47" t="str">
-        <f>MID(B47,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="M47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N47" t="str">
-        <f>MID(B47,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6316900</v>
       </c>
       <c r="O47" t="str">
-        <f>MID(B47,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="T47" t="str">
-        <f>CONCATENATE($U$1,M47,O47)</f>
+        <f t="shared" si="7"/>
         <v>label obey_2005= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
     </row>
@@ -2869,22 +2866,22 @@
         <v>24</v>
       </c>
       <c r="H48" t="str">
-        <f>MID(B48,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="M48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N48" t="str">
-        <f>MID(B48,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6317000</v>
       </c>
       <c r="O48" t="str">
-        <f>MID(B48,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="T48" t="str">
-        <f>CONCATENATE($U$1,M48,O48)</f>
+        <f t="shared" si="7"/>
         <v>label decide_2005= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
     </row>
@@ -2896,22 +2893,22 @@
         <v>25</v>
       </c>
       <c r="H49" t="str">
-        <f>MID(B49,21,40)</f>
+        <f t="shared" si="4"/>
         <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="M49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N49" t="str">
-        <f>MID(B49,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6317100</v>
       </c>
       <c r="O49" t="str">
-        <f>MID(B49,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="T49" t="str">
-        <f>CONCATENATE($U$1,M49,O49)</f>
+        <f t="shared" si="7"/>
         <v>label todo_2005= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
     </row>
@@ -2923,22 +2920,22 @@
         <v>26</v>
       </c>
       <c r="H50" t="str">
-        <f>MID(B50,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="M50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N50" t="str">
-        <f>MID(B50,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S6317200</v>
       </c>
       <c r="O50" t="str">
-        <f>MID(B50,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="T50" t="str">
-        <f>CONCATENATE($U$1,M50,O50)</f>
+        <f t="shared" si="7"/>
         <v>label pray_2005= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
     </row>
@@ -2950,22 +2947,22 @@
         <v>162</v>
       </c>
       <c r="H51" t="str">
-        <f>MID(B51,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="M51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N51" t="str">
-        <f>MID(B51,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S7501100</v>
       </c>
       <c r="O51" t="str">
-        <f>MID(B51,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="T51" t="str">
-        <f>CONCATENATE($U$1,M51,O51)</f>
+        <f t="shared" si="7"/>
         <v>label agemon_2006= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
     </row>
@@ -2977,22 +2974,22 @@
         <v>163</v>
       </c>
       <c r="H52" t="str">
-        <f>MID(B52,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="M52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N52" t="str">
-        <f>MID(B52,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S7501200</v>
       </c>
       <c r="O52" t="str">
-        <f>MID(B52,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="T52" t="str">
-        <f>CONCATENATE($U$1,M52,O52)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2006= "CV_AGE_INT_DATE 2006";</v>
       </c>
     </row>
@@ -3004,22 +3001,22 @@
         <v>27</v>
       </c>
       <c r="H53" t="str">
-        <f>MID(B53,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="M53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N53" t="str">
-        <f>MID(B53,9,8)</f>
+        <f t="shared" si="5"/>
         <v>S8331500</v>
       </c>
       <c r="O53" t="str">
-        <f>MID(B53,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="T53" t="str">
-        <f>CONCATENATE($U$1,M53,O53)</f>
+        <f t="shared" si="7"/>
         <v>label attend_2006= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
     </row>
@@ -3031,22 +3028,22 @@
         <v>164</v>
       </c>
       <c r="H54" t="str">
-        <f>MID(B54,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="M54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N54" t="str">
-        <f>MID(B54,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T0008400</v>
       </c>
       <c r="O54" t="str">
-        <f>MID(B54,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="T54" t="str">
-        <f>CONCATENATE($U$1,M54,O54)</f>
+        <f t="shared" si="7"/>
         <v>label agemon_2007= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
     </row>
@@ -3058,22 +3055,22 @@
         <v>165</v>
       </c>
       <c r="H55" t="str">
-        <f>MID(B55,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="M55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N55" t="str">
-        <f>MID(B55,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T0008500</v>
       </c>
       <c r="O55" t="str">
-        <f>MID(B55,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="T55" t="str">
-        <f>CONCATENATE($U$1,M55,O55)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2007= "CV_AGE_INT_DATE 2007";</v>
       </c>
     </row>
@@ -3085,22 +3082,22 @@
         <v>28</v>
       </c>
       <c r="H56" t="str">
-        <f>MID(B56,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="M56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N56" t="str">
-        <f>MID(B56,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T0739400</v>
       </c>
       <c r="O56" t="str">
-        <f>MID(B56,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="T56" t="str">
-        <f>CONCATENATE($U$1,M56,O56)</f>
+        <f t="shared" si="7"/>
         <v>label attend_2007= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
     </row>
@@ -3112,22 +3109,22 @@
         <v>166</v>
       </c>
       <c r="H57" t="str">
-        <f>MID(B57,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="M57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N57" t="str">
-        <f>MID(B57,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2011000</v>
       </c>
       <c r="O57" t="str">
-        <f>MID(B57,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="T57" t="str">
-        <f>CONCATENATE($U$1,M57,O57)</f>
+        <f t="shared" si="7"/>
         <v>label agemon_2008= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
     </row>
@@ -3139,22 +3136,22 @@
         <v>167</v>
       </c>
       <c r="H58" t="str">
-        <f>MID(B58,21,40)</f>
+        <f t="shared" si="4"/>
         <v>CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="M58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N58" t="str">
-        <f>MID(B58,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2011100</v>
       </c>
       <c r="O58" t="str">
-        <f>MID(B58,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="T58" t="str">
-        <f>CONCATENATE($U$1,M58,O58)</f>
+        <f t="shared" si="7"/>
         <v>label ageyear_2008= "CV_AGE_INT_DATE 2008";</v>
       </c>
     </row>
@@ -3166,22 +3163,22 @@
         <v>168</v>
       </c>
       <c r="H59" t="str">
-        <f>MID(B59,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R CURR REL PREF 2008";</v>
       </c>
       <c r="M59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N59" t="str">
-        <f>MID(B59,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2111400</v>
       </c>
       <c r="O59" t="str">
-        <f>MID(B59,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R CURR REL PREF 2008";</v>
       </c>
       <c r="T59" t="str">
-        <f>CONCATENATE($U$1,M59,O59)</f>
+        <f t="shared" si="7"/>
         <v>label relpref_2008= "R CURR REL PREF 2008";</v>
       </c>
     </row>
@@ -3193,22 +3190,22 @@
         <v>29</v>
       </c>
       <c r="H60" t="str">
-        <f>MID(B60,21,40)</f>
+        <f t="shared" si="4"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="M60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N60" t="str">
-        <f>MID(B60,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2781700</v>
       </c>
       <c r="O60" t="str">
-        <f>MID(B60,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="T60" t="str">
-        <f>CONCATENATE($U$1,M60,O60)</f>
+        <f t="shared" si="7"/>
         <v>label attend_2008= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
     </row>
@@ -3220,22 +3217,22 @@
         <v>30</v>
       </c>
       <c r="H61" t="str">
-        <f>MID(B61,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
       </c>
       <c r="M61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N61" t="str">
-        <f>MID(B61,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2781900</v>
       </c>
       <c r="O61" t="str">
-        <f>MID(B61,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
       </c>
       <c r="T61" t="str">
-        <f>CONCATENATE($U$1,M61,O61)</f>
+        <f t="shared" si="7"/>
         <v>label values_2008= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
       </c>
     </row>
@@ -3247,22 +3244,22 @@
         <v>31</v>
       </c>
       <c r="H62" t="str">
-        <f>MID(B62,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="M62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N62" t="str">
-        <f>MID(B62,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782000</v>
       </c>
       <c r="O62" t="str">
-        <f>MID(B62,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="T62" t="str">
-        <f>CONCATENATE($U$1,M62,O62)</f>
+        <f t="shared" si="7"/>
         <v>label obey_2008= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
     </row>
@@ -3274,22 +3271,22 @@
         <v>32</v>
       </c>
       <c r="H63" t="str">
-        <f>MID(B63,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="M63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N63" t="str">
-        <f>MID(B63,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782100</v>
       </c>
       <c r="O63" t="str">
-        <f>MID(B63,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="T63" t="str">
-        <f>CONCATENATE($U$1,M63,O63)</f>
+        <f t="shared" si="7"/>
         <v>label decide_2008= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
     </row>
@@ -3301,22 +3298,22 @@
         <v>33</v>
       </c>
       <c r="H64" t="str">
-        <f>MID(B64,21,40)</f>
+        <f t="shared" si="4"/>
         <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N64" t="str">
-        <f>MID(B64,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782200</v>
       </c>
       <c r="O64" t="str">
-        <f>MID(B64,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="T64" t="str">
-        <f>CONCATENATE($U$1,M64,O64)</f>
+        <f t="shared" si="7"/>
         <v>label todo_2008= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
     </row>
@@ -3328,22 +3325,22 @@
         <v>34</v>
       </c>
       <c r="H65" t="str">
-        <f>MID(B65,21,40)</f>
+        <f t="shared" si="4"/>
         <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="M65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N65" t="str">
-        <f>MID(B65,9,8)</f>
+        <f t="shared" si="5"/>
         <v>T2782300</v>
       </c>
       <c r="O65" t="str">
-        <f>MID(B65,18,80)</f>
+        <f t="shared" si="6"/>
         <v>= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="T65" t="str">
-        <f>CONCATENATE($U$1,M65,O65)</f>
+        <f t="shared" si="7"/>
         <v>label pray_2008= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
     </row>
@@ -3355,22 +3352,22 @@
         <v>169</v>
       </c>
       <c r="H66" t="str">
-        <f>MID(B66,21,40)</f>
+        <f t="shared" ref="H66:H71" si="8">MID(B66,21,40)</f>
         <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="M66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N66" t="str">
-        <f>MID(B66,9,8)</f>
+        <f t="shared" ref="N66:N71" si="9">MID(B66,9,8)</f>
         <v>T3601400</v>
       </c>
       <c r="O66" t="str">
-        <f>MID(B66,18,80)</f>
+        <f t="shared" ref="O66:O71" si="10">MID(B66,18,80)</f>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="T66" t="str">
-        <f>CONCATENATE($U$1,M66,O66)</f>
+        <f t="shared" ref="T66:T71" si="11">CONCATENATE($U$1,M66,O66)</f>
         <v>label agemon_2009= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
     </row>
@@ -3382,22 +3379,22 @@
         <v>170</v>
       </c>
       <c r="H67" t="str">
-        <f>MID(B67,21,40)</f>
+        <f t="shared" si="8"/>
         <v>CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="M67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N67" t="str">
-        <f>MID(B67,9,8)</f>
+        <f t="shared" si="9"/>
         <v>T3601500</v>
       </c>
       <c r="O67" t="str">
-        <f>MID(B67,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="T67" t="str">
-        <f>CONCATENATE($U$1,M67,O67)</f>
+        <f t="shared" si="11"/>
         <v>label ageyear_2009= "CV_AGE_INT_DATE 2009";</v>
       </c>
     </row>
@@ -3409,22 +3406,22 @@
         <v>171</v>
       </c>
       <c r="H68" t="str">
-        <f>MID(B68,21,40)</f>
+        <f t="shared" si="8"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="M68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N68" t="str">
-        <f>MID(B68,9,8)</f>
+        <f t="shared" si="9"/>
         <v>T4495000</v>
       </c>
       <c r="O68" t="str">
-        <f>MID(B68,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="T68" t="str">
-        <f>CONCATENATE($U$1,M68,O68)</f>
+        <f t="shared" si="11"/>
         <v>label attend_2009= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
     </row>
@@ -3436,22 +3433,22 @@
         <v>173</v>
       </c>
       <c r="H69" t="str">
-        <f>MID(B69,21,40)</f>
+        <f t="shared" si="8"/>
         <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="M69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N69" t="str">
-        <f>MID(B69,9,8)</f>
+        <f t="shared" si="9"/>
         <v>T5201300</v>
       </c>
       <c r="O69" t="str">
-        <f>MID(B69,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="T69" t="str">
-        <f>CONCATENATE($U$1,M69,O69)</f>
+        <f t="shared" si="11"/>
         <v>label agemon_2010= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
     </row>
@@ -3463,22 +3460,22 @@
         <v>174</v>
       </c>
       <c r="H70" t="str">
-        <f>MID(B70,21,40)</f>
+        <f t="shared" si="8"/>
         <v>CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="M70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N70" t="str">
-        <f>MID(B70,9,8)</f>
+        <f t="shared" si="9"/>
         <v>T5201400</v>
       </c>
       <c r="O70" t="str">
-        <f>MID(B70,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="T70" t="str">
-        <f>CONCATENATE($U$1,M70,O70)</f>
+        <f t="shared" si="11"/>
         <v>label ageyear_2010= "CV_AGE_INT_DATE 2010";</v>
       </c>
     </row>
@@ -3490,22 +3487,22 @@
         <v>172</v>
       </c>
       <c r="H71" t="str">
-        <f>MID(B71,21,40)</f>
+        <f t="shared" si="8"/>
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="M71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N71" t="str">
-        <f>MID(B71,9,8)</f>
+        <f t="shared" si="9"/>
         <v>T6143400</v>
       </c>
       <c r="O71" t="str">
-        <f>MID(B71,18,80)</f>
+        <f t="shared" si="10"/>
         <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="T71" t="str">
-        <f>CONCATENATE($U$1,M71,O71)</f>
+        <f t="shared" si="11"/>
         <v>label attend_2010= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
     </row>
@@ -3669,35 +3666,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="36"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="3:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -3721,53 +3718,53 @@
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="U4" s="2">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="37">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
       <c r="D5" s="10">
@@ -3784,10 +3781,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="11">
@@ -3798,14 +3795,14 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="27"/>
       <c r="U5" s="2">
         <f>U4/12</f>
         <v>15.833333333333334</v>
       </c>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="39">
+      <c r="C6" s="28">
         <v>1</v>
       </c>
       <c r="D6" s="12">
@@ -3822,10 +3819,10 @@
         <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="13">
@@ -3836,10 +3833,10 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="39">
+      <c r="C7" s="28">
         <v>1</v>
       </c>
       <c r="D7" s="12">
@@ -3856,10 +3853,10 @@
         <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="13">
@@ -3870,10 +3867,10 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="39">
+      <c r="C8" s="28">
         <v>1</v>
       </c>
       <c r="D8" s="12">
@@ -3890,26 +3887,26 @@
         <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="43">
+      <c r="K8" s="32">
         <v>7</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="32">
         <v>1</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="39">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
       <c r="D9" s="12">
@@ -3926,10 +3923,10 @@
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="13"/>
@@ -3940,10 +3937,10 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="40"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="39">
+      <c r="C10" s="28">
         <v>1</v>
       </c>
       <c r="D10" s="12">
@@ -3960,10 +3957,10 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="13"/>
@@ -3982,12 +3979,12 @@
       <c r="P10" s="14">
         <v>1</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="39">
+      <c r="C11" s="28">
         <v>1</v>
       </c>
       <c r="D11" s="12">
@@ -4004,10 +4001,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="13"/>
@@ -4018,10 +4015,10 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="40"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="39">
+      <c r="C12" s="28">
         <v>1</v>
       </c>
       <c r="D12" s="12">
@@ -4038,10 +4035,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="13"/>
@@ -4052,10 +4049,10 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="40"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="39">
+      <c r="C13" s="28">
         <v>1</v>
       </c>
       <c r="D13" s="12">
@@ -4072,13 +4069,13 @@
         <v>24</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13">
@@ -4096,12 +4093,12 @@
       <c r="P13" s="14">
         <v>1</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="39">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
       <c r="D14" s="12">
@@ -4118,10 +4115,10 @@
         <v>25</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="13"/>
@@ -4132,10 +4129,10 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="40"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="39">
+      <c r="C15" s="28">
         <v>1</v>
       </c>
       <c r="D15" s="12">
@@ -4152,10 +4149,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="13"/>
@@ -4166,10 +4163,10 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="40"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="39">
+      <c r="C16" s="28">
         <v>1</v>
       </c>
       <c r="D16" s="12">
@@ -4186,13 +4183,13 @@
         <v>27</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13">
@@ -4210,12 +4207,12 @@
       <c r="P16" s="14">
         <v>0</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="39">
+      <c r="C17" s="28">
         <v>1</v>
       </c>
       <c r="D17" s="12">
@@ -4232,10 +4229,10 @@
         <v>28</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="13"/>
@@ -4246,10 +4243,10 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C18" s="41">
+      <c r="C18" s="30">
         <v>1</v>
       </c>
       <c r="D18" s="15">
@@ -4266,10 +4263,10 @@
         <v>29</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="16"/>
@@ -4280,7 +4277,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="42"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
@@ -4302,34 +4299,34 @@
     <row r="20" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="E20" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="F20" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="G20" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="H20" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="I20" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="K20" s="45" t="s">
+      <c r="L20" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>245</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>206</v>
@@ -4350,7 +4347,7 @@
     <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="18">
         <v>15</v>
@@ -4398,90 +4395,90 @@
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+        <v>219</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+      <c r="D23" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+        <v>220</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
+        <v>221</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
     </row>
     <row r="26" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -4503,182 +4500,182 @@
     </row>
     <row r="27" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
+        <v>226</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="21"/>
     </row>
     <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="21"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="21"/>
     </row>
     <row r="31" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
       <c r="R31" s="21"/>
     </row>
     <row r="32" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
       <c r="R32" s="21"/>
     </row>
     <row r="33" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
       <c r="R33" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
       <c r="R34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="3:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4700,96 +4697,101 @@
     </row>
     <row r="36" spans="3:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D37:R37"/>
+    <mergeCell ref="D38:R38"/>
+    <mergeCell ref="D39:R39"/>
+    <mergeCell ref="D40:R40"/>
+    <mergeCell ref="D41:R41"/>
     <mergeCell ref="D34:Q34"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -4806,11 +4808,6 @@
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
     <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D37:R37"/>
-    <mergeCell ref="D38:R38"/>
-    <mergeCell ref="D39:R39"/>
-    <mergeCell ref="D40:R40"/>
-    <mergeCell ref="D41:R41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
